--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -89,7 +89,7 @@
     <t>275.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 10:50 AM</t>
+    <t>Thursday, 2 October, 2025 10:53 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,15 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -65,9 +95,6 @@
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -80,16 +107,19 @@
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>550.00</t>
   </si>
   <si>
     <t>275.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 10:53 AM</t>
+    <t>SINE UP SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 10:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,15 +799,15 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -789,20 +819,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -813,42 +843,141 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>345.29000000000002</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>28</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>27</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>28</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>35</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>19</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>14</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>402.29000000000002</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +1001,25 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -119,7 +119,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 10:58 AM</t>
+    <t>Thursday, 2 October, 2025 11:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -65,7 +65,7 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>1</t>
@@ -74,7 +74,10 @@
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DENSITIN 30 CAPS</t>
@@ -101,6 +104,18 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
@@ -113,13 +128,22 @@
     <t>275.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>SINE UP SYRUP 120 ML</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:07 AM</t>
+    <t>Thursday, 2 October, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -810,7 +834,7 @@
         <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -819,14 +843,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -836,14 +860,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -852,7 +876,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -869,14 +893,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -885,31 +909,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -918,66 +942,132 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>39</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>19</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>14</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
         <v>15</v>
       </c>
-      <c t="s" r="Q12" s="12">
+      <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>402.29000000000002</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
-        <v>37</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
-        <v>38</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>518.28999999999996</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1106,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>275.0000</t>
   </si>
   <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -143,7 +152,16 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:08 AM</t>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 11:32 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -982,13 +1000,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1015,59 +1033,125 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>518.28999999999996</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>44</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>19</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>14</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>19</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>685.28999999999996</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1200,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -62,15 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
     <t>14:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -161,7 +182,52 @@
     <t>122.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:32 AM</t>
+    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>-16.8300</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>ببرونه صغير الجو</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>1.3200</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -835,24 +901,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -861,31 +927,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -894,31 +960,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -934,24 +1000,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -960,31 +1026,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -993,20 +1059,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1017,7 +1083,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1033,13 +1099,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1066,21 +1132,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1092,66 +1158,297 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>685.28999999999996</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>16</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>50</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>53</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>14</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>54</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>18</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>55</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>30</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>18</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>58</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>61</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>18</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>67</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>39</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>882.27999999999997</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>72</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>73</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>74</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1507,45 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 10 سم</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -227,7 +236,10 @@
     <t>1.3200</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 12:46 PM</t>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 4:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1396,7 +1408,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1413,42 +1425,108 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>39</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>30</v>
       </c>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>882.27999999999997</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
-        <v>72</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
-        <v>73</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
-        <v>74</v>
-      </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>14</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>964.27999999999997</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>76</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>77</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>78</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1542,10 +1620,20 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,6 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -59,15 +77,9 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>69.00</t>
   </si>
   <si>
@@ -116,9 +128,6 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -239,7 +248,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 4:47 PM</t>
+    <t>Thursday, 2 October, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,21 +922,21 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -939,20 +948,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -963,7 +972,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -972,31 +981,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1005,20 +1014,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1029,7 +1038,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1038,20 +1047,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1062,7 +1071,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1078,7 +1087,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1088,14 +1097,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1104,20 +1113,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1128,7 +1137,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1144,7 +1153,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1154,11 +1163,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1170,28 +1179,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1210,7 +1219,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1243,21 +1252,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1269,28 +1278,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1309,13 +1318,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1326,7 +1335,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1342,24 +1351,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1368,14 +1377,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1385,14 +1394,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1401,20 +1410,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1441,13 +1450,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1458,7 +1467,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1474,59 +1483,92 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>964.27999999999997</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>76</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
-        <v>77</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>26</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>19</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>20</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>21</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>977.27999999999997</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>79</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>80</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>81</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1630,10 +1672,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:07 PM</t>
+    <t>Thursday, 2 October, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -248,7 +248,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:11 PM</t>
+    <t>Thursday, 2 October, 2025 5:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>13.00</t>
   </si>
   <si>
@@ -104,18 +119,12 @@
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -134,6 +143,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
@@ -146,6 +167,15 @@
     <t>275.0000</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>LOPRECOUGH SYRUP 100 ML</t>
   </si>
   <si>
@@ -200,6 +230,18 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -213,6 +255,15 @@
   </si>
   <si>
     <t>0:-1</t>
+  </si>
+  <si>
+    <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>94.5000</t>
   </si>
   <si>
     <t>ببرونه صغير الجو</t>
@@ -928,18 +979,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -955,24 +1006,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -981,14 +1032,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -998,14 +1049,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1054,7 +1105,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,7 +1122,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1138,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1120,24 +1171,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1197,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1186,21 +1237,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1212,14 +1263,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1229,14 +1280,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1245,31 +1296,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1278,31 +1329,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1311,14 +1362,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1328,14 +1379,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1344,31 +1395,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1377,14 +1428,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1394,14 +1445,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1410,31 +1461,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1443,7 +1494,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1456,15 +1507,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1476,31 +1527,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1509,66 +1560,231 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>21</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>83</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>977.27999999999997</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>79</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>80</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>81</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>24</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>87</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>89</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>21</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>24</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>49</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>24</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>93</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>95</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>31</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>24</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>25</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1233.8499999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1677,10 +1893,35 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:13 PM</t>
+    <t>Thursday, 2 October, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -155,12 +155,21 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>550.00</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -299,7 +305,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:26 PM</t>
+    <t>Thursday, 2 October, 2025 5:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1243,7 +1249,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1254,7 +1260,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1276,7 +1282,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1287,7 +1293,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1336,21 +1342,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1362,28 +1368,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1402,13 +1408,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1416,7 +1422,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1428,28 +1434,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1468,7 +1474,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1478,11 +1484,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1494,14 +1500,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1511,14 +1517,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1527,14 +1533,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1544,14 +1550,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,14 +1566,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1577,14 +1583,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1593,14 +1599,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,14 +1616,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1626,31 +1632,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,14 +1665,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1676,11 +1682,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1692,14 +1698,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1709,14 +1715,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1725,14 +1731,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1742,49 +1748,82 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
         <v>26</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1233.8499999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>96</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>31</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>24</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>25</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1257.8499999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
         <v>98</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>99</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>100</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1957,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DOXIUM 500MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -173,9 +182,6 @@
     <t>550.00</t>
   </si>
   <si>
-    <t>275.0000</t>
-  </si>
-  <si>
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -305,7 +311,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:29 PM</t>
+    <t>Thursday, 2 October, 2025 5:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1150,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1161,7 +1167,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1177,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1194,7 +1200,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1210,7 +1216,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1220,14 +1226,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1236,14 +1242,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1253,14 +1259,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1269,20 +1275,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1293,7 +1299,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1309,13 +1315,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1323,10 +1329,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1335,14 +1341,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1352,11 +1358,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1368,28 +1374,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1401,28 +1407,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1441,13 +1447,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1455,7 +1461,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1467,28 +1473,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1507,7 +1513,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1517,11 +1523,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1550,14 +1556,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1566,14 +1572,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1583,14 +1589,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1649,14 +1655,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1665,31 +1671,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1698,14 +1704,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1715,11 +1721,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1731,14 +1737,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1748,14 +1754,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1764,14 +1770,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1781,49 +1787,82 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>31</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>24</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>25</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>26</v>
       </c>
-      <c t="s" r="Q32" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1257.8499999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>98</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>99</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1532.8499999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
         <v>100</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1962,10 +2001,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -299,6 +308,18 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -311,7 +332,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:40 PM</t>
+    <t>Thursday, 2 October, 2025 5:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1414,21 +1435,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1440,28 +1461,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1473,28 +1494,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1513,21 +1534,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1539,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1556,11 +1577,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1579,7 +1600,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1596,7 +1617,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1612,7 +1633,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,14 +1676,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,14 +1709,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1711,24 +1732,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1777,7 +1798,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1794,7 +1815,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1810,7 +1831,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1820,49 +1841,115 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>103</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>52</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>24</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>104</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>106</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>31</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>24</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>25</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>26</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1532.8499999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>100</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>101</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>102</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1602.8499999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2006,10 +2093,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:43 PM</t>
+    <t>Thursday, 2 October, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
     <t>36.6300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -326,13 +338,16 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>1.3200</t>
+    <t>3.3200</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 5:51 PM</t>
+    <t>Thursday, 2 October, 2025 6:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1038,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1032,31 +1047,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1065,31 +1080,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1098,14 +1113,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1122,7 +1137,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1131,14 +1146,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1155,7 +1170,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1164,14 +1179,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,14 +1196,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1197,14 +1212,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,14 +1229,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1230,14 +1245,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,14 +1262,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1287,7 +1302,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,7 +1335,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1336,24 +1351,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,31 +1377,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,14 +1427,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,14 +1460,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1461,31 +1476,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,31 +1509,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,31 +1542,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1560,31 +1575,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1608,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1643,14 +1658,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1683,7 +1698,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1716,7 +1731,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1749,7 +1764,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,20 +1773,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1782,7 +1797,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1798,24 +1813,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,20 +1839,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1848,7 +1863,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1864,24 +1879,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,66 +1905,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1602.8499999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>107</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>108</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>109</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>111</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>35</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>28</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>29</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1617.3299999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>113</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>114</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2151,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -239,6 +239,27 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SINE UP SYRUP 120 ML</t>
   </si>
   <si>
@@ -302,9 +323,6 @@
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -347,7 +365,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 6:10 PM</t>
+    <t>Thursday, 2 October, 2025 6:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1516,7 +1534,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1615,7 +1633,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1625,11 +1643,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1658,11 +1676,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1747,7 +1765,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,31 +1824,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1852,7 +1870,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1863,7 +1881,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1879,7 +1897,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,11 +1907,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>25</v>
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,14 +1940,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,14 +1956,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1955,49 +1973,115 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>113</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>56</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>28</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>114</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>117</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>35</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>28</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>29</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>30</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1617.3299999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>112</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>113</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>114</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q38" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1667.3299999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>120</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2156,10 +2240,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>2:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -62,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -74,6 +98,15 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -86,9 +119,6 @@
     <t>13.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -113,6 +143,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -179,9 +221,6 @@
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -221,6 +260,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -356,16 +401,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>3.3200</t>
-  </si>
-  <si>
-    <t>1:1</t>
+    <t>5.3200</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 6:45 PM</t>
+    <t>Thursday, 2 October, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1023,7 +1065,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1032,14 +1074,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1049,14 +1091,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1089,7 +1131,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1098,31 +1140,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1131,14 +1173,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1148,14 +1190,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1164,14 +1206,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1181,14 +1223,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1197,31 +1239,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1230,14 +1272,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,14 +1289,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1263,14 +1305,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1287,7 +1329,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1303,7 +1345,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,14 +1355,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1329,14 +1371,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,14 +1388,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1404,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1386,7 +1428,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1402,13 +1444,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1416,10 +1458,10 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1428,14 +1470,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1445,14 +1487,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1461,14 +1503,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1478,14 +1520,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1494,14 +1536,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,14 +1553,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,31 +1569,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,14 +1602,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,14 +1619,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1593,31 +1635,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1626,14 +1668,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,14 +1685,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1659,14 +1701,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1718,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,31 +1734,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1725,14 +1767,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1784,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1765,13 +1807,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1782,7 +1824,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1798,7 +1840,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1808,14 +1850,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1866,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1883,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1899,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1916,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,31 +1932,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,31 +1965,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1998,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,31 +2031,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,66 +2064,231 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1667.3299999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>118</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>95</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>119</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>120</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>12</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>38</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>125</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>38</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>126</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>128</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>22</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>38</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>129</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>131</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>49</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>38</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>39</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2001.46</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>132</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>133</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>134</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2250,10 +2457,35 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ARTHFREE 20MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -395,6 +407,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -407,7 +431,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:17 PM</t>
+    <t>Thursday, 2 October, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1204,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1190,14 +1214,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1206,14 +1230,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1252,15 +1276,15 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1272,28 +1296,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1305,14 +1329,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1329,7 +1353,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1362,7 +1386,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1371,14 +1395,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1395,7 +1419,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1404,14 +1428,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1421,14 +1445,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1437,14 +1461,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1454,14 +1478,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1470,14 +1494,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1487,14 +1511,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1503,14 +1527,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1527,7 +1551,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1543,7 +1567,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1553,14 +1577,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1569,31 +1593,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1602,31 +1626,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1652,11 +1676,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1685,11 +1709,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1734,31 +1758,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1767,28 +1791,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1800,28 +1824,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1833,28 +1857,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1916,11 +1940,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1949,11 +1973,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2022,7 +2046,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2055,7 +2079,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2088,7 +2112,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2097,31 +2121,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2130,28 +2154,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2163,20 +2187,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2203,24 +2227,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2229,66 +2253,132 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2001.46</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
-        <v>132</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
-        <v>133</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
-        <v>134</v>
-      </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>26</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>42</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>137</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>53</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>42</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>43</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2052.6700000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>140</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>141</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>142</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2482,10 +2572,20 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTOPRAL 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>ARTHFREE 20MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GAST-REG 100 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
@@ -272,6 +290,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
@@ -281,6 +308,18 @@
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -302,9 +341,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -332,6 +368,24 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>SITAGLIFORM50\1000 TAB</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>136.6200</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
   </si>
   <si>
@@ -377,6 +431,15 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
@@ -431,7 +494,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:28 PM</t>
+    <t>Thursday, 2 October, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1234,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1181,14 +1244,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1197,14 +1260,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1214,11 +1277,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>20</v>
@@ -1230,14 +1293,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1254,7 +1317,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1270,7 +1333,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1280,11 +1343,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1296,28 +1359,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1329,20 +1392,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1369,7 +1432,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1379,14 +1442,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1395,14 +1458,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1412,14 +1475,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1428,14 +1491,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1445,14 +1508,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1468,7 +1531,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1485,7 +1548,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1501,7 +1564,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1518,7 +1581,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1534,7 +1597,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1551,7 +1614,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1567,7 +1630,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1577,14 +1640,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1593,14 +1656,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1617,7 +1680,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1633,13 +1696,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1647,10 +1710,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1659,14 +1722,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1676,14 +1739,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1692,31 +1755,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1732,7 +1795,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1765,7 +1828,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1779,10 +1842,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1791,28 +1854,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1824,14 +1887,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1841,11 +1904,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1857,31 +1920,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1890,28 +1953,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1923,14 +1986,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1940,14 +2003,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1956,14 +2019,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1973,11 +2036,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1989,7 +2052,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2002,15 +2065,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2022,14 +2085,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2039,14 +2102,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2105,14 +2168,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2121,7 +2184,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2138,14 +2201,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2154,31 +2217,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2187,28 +2250,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2220,31 +2283,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2253,31 +2316,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2286,31 +2349,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2319,66 +2382,297 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>140</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>29</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>13</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>141</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>143</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>111</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>45</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>144</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>146</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>12</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>45</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>147</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>149</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>150</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>45</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>151</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
         <v>44</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2052.6700000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>140</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>141</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>142</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>153</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>154</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>45</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>155</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>157</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>29</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>45</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>158</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>160</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>56</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>45</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>46</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2732.29</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>161</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>162</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>163</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2582,10 +2876,45 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -494,7 +494,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:30 PM</t>
+    <t>Thursday, 2 October, 2025 7:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -311,34 +311,37 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
     <t>23.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
   </si>
   <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
@@ -2010,7 +2013,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2106,7 +2109,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2151,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2234,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>33</v>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2349,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2366,14 +2369,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2382,7 +2385,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2399,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2432,11 +2435,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2448,14 +2451,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2465,11 +2468,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2481,7 +2484,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2498,11 +2501,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2531,11 +2534,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2564,11 +2567,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>33</v>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2597,14 +2600,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2613,7 +2616,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2642,13 +2645,13 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2732.29</v>
+        <v>2755.29</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2656,13 +2659,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:31 PM</t>
+    <t>Thursday, 2 October, 2025 7:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
@@ -410,6 +419,9 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -497,7 +509,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:32 PM</t>
+    <t>Thursday, 2 October, 2025 7:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1765,13 +1777,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1779,10 +1791,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1791,7 +1803,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1804,18 +1816,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1897,7 +1909,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1930,7 +1942,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1944,10 +1956,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1956,31 +1968,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1989,31 +2001,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2043,10 +2055,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,28 +2067,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2095,13 +2107,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2128,7 +2140,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,11 +2150,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,11 +2183,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2187,14 +2199,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,11 +2216,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2227,13 +2239,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2244,7 +2256,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2260,13 +2272,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2277,7 +2289,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2293,7 +2305,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2310,7 +2322,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2326,7 +2338,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2381,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,31 +2463,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,28 +2496,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2600,14 +2612,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,49 +2645,115 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
         <v>47</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2755.29</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>162</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>29</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>45</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>163</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>56</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>45</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>46</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2905.29</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>166</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>167</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>168</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2914,10 +2992,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -62,30 +62,33 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>28.7100</t>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
   </si>
   <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
     <t>ANTOPRAL 40MG 14 TAB.</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t>ARTICU-SAFE 50MG 30 CAPS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -353,6 +353,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -389,6 +398,21 @@
     <t>136.6200</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -422,12 +446,18 @@
     <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
+    <t>VETOCETAMOL 24 TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -509,7 +539,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:35 PM</t>
+    <t>Thursday, 2 October, 2025 7:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1233,7 +1263,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1242,14 +1272,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1259,11 +1289,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1275,14 +1305,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1292,14 +1322,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1308,14 +1338,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1332,7 +1362,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1348,7 +1378,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1497,7 +1527,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1546,7 +1576,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1563,7 +1593,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1579,7 +1609,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1629,7 +1659,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1695,7 +1725,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1744,7 +1774,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1761,7 +1791,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1810,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1827,7 +1857,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1843,7 +1873,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1876,7 +1906,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1909,7 +1939,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1942,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1992,7 +2022,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2058,7 +2088,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,24 +2203,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2199,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2216,11 +2246,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2232,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2249,11 +2279,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2272,13 +2302,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2289,7 +2319,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2305,13 +2335,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2322,7 +2352,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2338,7 +2368,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2348,14 +2378,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2364,14 +2394,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2381,14 +2411,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2397,14 +2427,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2414,11 +2444,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2437,7 +2467,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2447,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2480,14 +2510,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2513,11 +2543,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2529,31 +2559,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2562,31 +2592,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2595,31 +2625,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2628,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2661,14 +2691,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2678,14 +2708,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2694,14 +2724,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2711,49 +2741,181 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>164</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>165</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>45</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>166</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>169</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>45</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>170</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>30</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>45</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>56</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>45</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>46</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>47</v>
       </c>
-      <c t="s" r="Q54" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2905.29</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>166</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>167</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
-        <v>168</v>
-      </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3105.125</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>176</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>177</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>178</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3002,10 +3164,30 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -539,7 +539,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:38 PM</t>
+    <t>Thursday, 2 October, 2025 7:39 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -539,7 +539,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:39 PM</t>
+    <t>Thursday, 2 October, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>DOXIUM 500MG 30 CAPS.</t>
   </si>
   <si>
@@ -221,231 +230,231 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GAST-REG 100 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>JOINTINAL TAB</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>NEUROVIT 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>NORGESIC 20 TAB.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>REALCOXSTAR 90MG 14TAB</t>
+  </si>
+  <si>
+    <t>133.00</t>
+  </si>
+  <si>
+    <t>66.5000</t>
+  </si>
+  <si>
+    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>SINE UP SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SITAGLIFORM50\1000 TAB</t>
+  </si>
+  <si>
+    <t>207.00</t>
+  </si>
+  <si>
+    <t>136.6200</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>30.5000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GAST-REG 100 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>JOINTINAL TAB</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>LOPRECOUGH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>NEUROVIT 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>NORGESIC 20 TAB.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRISOLINE  EYE/NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>REALCOXSTAR 90MG 14TAB</t>
-  </si>
-  <si>
-    <t>133.00</t>
-  </si>
-  <si>
-    <t>66.5000</t>
-  </si>
-  <si>
-    <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>SINE UP SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SITAGLIFORM50\1000 TAB</t>
-  </si>
-  <si>
-    <t>207.00</t>
-  </si>
-  <si>
-    <t>136.6200</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN 40MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 200MG 20 F.C. DIVITAB.</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>30.5000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>VERMIZOLE 200MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
@@ -539,7 +548,7 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:40 PM</t>
+    <t>Thursday, 2 October, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1618,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1642,7 +1651,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1659,7 +1668,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1675,7 +1684,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1692,7 +1701,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1725,7 +1734,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1741,7 +1750,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1760,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,14 +1776,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,14 +1793,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1817,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1833,31 +1842,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1866,7 +1875,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1879,18 +1888,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1899,7 +1908,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1916,11 +1925,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1932,7 +1941,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1965,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1998,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2038,24 +2047,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2064,31 +2073,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,14 +2106,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,13 +2146,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2151,7 +2160,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2163,28 +2172,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2196,31 +2205,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,31 +2238,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,11 +2288,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2302,7 +2311,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,11 +2321,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2328,31 +2337,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2361,31 +2370,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2401,7 +2410,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2427,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,14 +2453,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2460,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2526,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,11 +2552,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2559,14 +2568,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2576,14 +2585,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2599,7 +2608,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2616,7 +2625,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>151</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2665,7 +2674,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2682,7 +2691,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2698,13 +2707,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2731,7 +2740,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2764,7 +2773,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2873,49 +2882,82 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>178</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>56</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>45</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>46</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>47</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3105.125</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>176</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>177</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>178</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>3186.125</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>179</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>181</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3184,10 +3226,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
   </si>
   <si>
     <t>Thursday, 2 October, 2025 7:42 PM</t>
@@ -2926,38 +2938,71 @@
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>3186.125</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>179</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
         <v>180</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>45</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>181</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3216.125</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>183</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>184</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>185</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3231,10 +3276,15 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -560,7 +560,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:42 PM</t>
+    <t>Thursday, 2 October, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -203,108 +203,114 @@
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>55.00</t>
   </si>
   <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DOXIUM 500MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GAST-REG 100 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>GYNERA 21 C.TABS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>JOINTINAL TAB</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>LOPRECOUGH SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
     <t>55.0000</t>
   </si>
   <si>
-    <t>DOXIUM 500MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>275.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GAST-REG 100 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>GYNERA 21 C.TABS</t>
-  </si>
-  <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>JOINTINAL TAB</t>
-  </si>
-  <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>LOPRECOUGH SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
     <t>NEUROVIT 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -383,9 +389,6 @@
     <t>SINE UP SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -560,7 +563,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:43 PM</t>
+    <t>Thursday, 2 October, 2025 7:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,7 +1633,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1640,14 +1643,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1656,7 +1659,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1673,11 +1676,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1689,7 +1692,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1706,11 +1709,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1722,14 +1725,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1746,7 +1749,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1755,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1772,11 +1775,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1805,11 +1808,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1821,7 +1824,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1838,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1871,11 +1874,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1887,7 +1890,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1904,11 +1907,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -1920,7 +1923,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1937,11 +1940,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1953,7 +1956,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1970,11 +1973,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1986,7 +1989,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2003,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2069,7 +2072,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2085,7 +2088,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2118,14 +2121,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,11 +2138,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2151,7 +2154,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2168,11 +2171,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2234,11 +2237,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2267,11 +2270,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2283,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2300,11 +2303,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2349,7 +2352,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2399,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2436,7 +2439,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2448,7 +2451,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2465,11 +2468,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2481,7 +2484,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2498,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2514,7 +2517,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2531,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2547,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,11 +2567,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2580,7 +2583,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2613,7 +2616,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2630,11 +2633,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2663,14 +2666,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2679,7 +2682,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2712,7 +2715,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2729,11 +2732,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2745,14 +2748,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2778,7 +2781,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2795,11 +2798,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2811,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2844,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2894,11 +2897,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>17</v>
@@ -2910,7 +2913,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2943,14 +2946,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2960,11 +2963,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2972,13 +2975,13 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="P61" s="13">
-        <v>3216.125</v>
+        <v>3297.125</v>
       </c>
       <c r="Q61" s="13"/>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c t="s" r="A62" s="14">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -2986,13 +2989,13 @@
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
       <c t="s" r="G62" s="15">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
       <c t="s" r="K62" s="17">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -563,7 +563,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:44 PM</t>
+    <t>Thursday, 2 October, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -551,6 +551,12 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
@@ -563,7 +569,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:52 PM</t>
+    <t>Thursday, 2 October, 2025 7:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2963,49 +2969,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>183</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3297.125</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>45</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>184</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>185</v>
       </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3321.125</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
         <v>186</v>
       </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3284,10 +3323,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:53 PM</t>
+    <t>Thursday, 2 October, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>275.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:8</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -569,7 +581,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:54 PM</t>
+    <t>Thursday, 2 October, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,7 +1717,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1743,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1760,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1771,7 +1783,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1793,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1804,7 +1816,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1826,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1842,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,14 +1859,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1875,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1892,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,31 +1908,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,7 +1941,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1942,18 +1954,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1962,7 +1974,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1979,11 +1991,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1995,7 +2007,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2012,11 +2024,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2028,14 +2040,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,11 +2057,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2061,14 +2073,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2090,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,31 +2106,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,31 +2139,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,7 +2179,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2189,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,28 +2205,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2226,28 +2238,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2259,31 +2271,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,20 +2304,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2316,7 +2328,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2332,7 +2344,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,11 +2354,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2358,14 +2370,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,11 +2387,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2391,31 +2403,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2424,31 +2436,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2486,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2490,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2580,7 +2592,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,7 +2608,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,11 +2618,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2639,14 +2651,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2684,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2695,7 +2707,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2712,7 +2724,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,28 +2766,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,11 +2816,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2820,14 +2832,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2877,7 +2889,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2893,7 +2905,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,14 +2915,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,14 +2948,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,11 +2981,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2985,14 +2997,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3002,49 +3014,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3321.125</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
         <v>186</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>187</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>45</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>188</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3344.165</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>190</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>191</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>192</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3373,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -59,6 +59,21 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>57.4200</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTOPRAL 40MG 14 TAB.</t>
   </si>
   <si>
@@ -119,6 +128,18 @@
     <t>36.6300</t>
   </si>
   <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -248,9 +269,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>3:0</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -572,16 +599,13 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 7:58 PM</t>
+    <t>Thursday, 2 October, 2025 8:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1305,7 +1329,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1314,14 +1338,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1338,7 +1362,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1354,7 +1378,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1364,14 +1388,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1380,14 +1404,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1404,7 +1428,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1420,7 +1444,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1437,7 +1461,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1470,7 +1494,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1486,21 +1510,21 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1512,14 +1536,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1529,11 +1553,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1545,20 +1569,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1569,7 +1593,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1585,7 +1609,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1595,14 +1619,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1611,14 +1635,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1628,14 +1652,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1644,14 +1668,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1661,14 +1685,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1684,7 +1708,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1701,7 +1725,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,7 +1758,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1750,7 +1774,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1767,7 +1791,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1783,7 +1807,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1793,14 +1817,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1816,7 +1840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1826,14 +1850,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1842,14 +1866,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1859,14 +1883,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1875,14 +1899,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1948,13 +1972,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1962,10 +1986,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1974,14 +1998,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1991,11 +2015,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2007,31 +2031,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2047,7 +2071,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2057,11 +2081,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2073,14 +2097,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2090,11 +2114,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2106,14 +2130,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2123,14 +2147,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2139,28 +2163,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2172,14 +2196,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2189,14 +2213,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,7 +2229,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2222,14 +2246,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2238,28 +2262,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>56</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2278,7 +2302,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2288,14 +2312,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2304,31 +2328,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2344,21 +2368,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2370,14 +2394,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2387,11 +2411,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2403,31 +2427,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2436,31 +2460,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2469,14 +2493,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2486,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2519,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2535,31 +2559,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2568,14 +2592,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2585,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2608,7 +2632,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2618,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2634,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2651,7 +2675,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2674,7 +2698,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2691,7 +2715,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2707,7 +2731,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2717,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2740,7 +2764,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2750,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2766,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2783,14 +2807,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2799,31 +2823,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>168</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2845,7 +2869,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2856,7 +2880,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2872,21 +2896,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2898,31 +2922,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2931,31 +2955,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2964,28 +2988,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>56</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -2997,31 +3021,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3030,66 +3054,165 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3344.165</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>190</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>191</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>192</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>63</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>52</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>53</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>194</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>52</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>124</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>195</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>40</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>52</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>196</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3476.8649999999998</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>198</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>200</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3378,10 +3501,25 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -140,6 +140,12 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
   </si>
   <si>
@@ -188,9 +194,6 @@
     <t>COLCHICINE 500MCG 100 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
@@ -293,6 +296,18 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLUCOPHAGE 500 MG 50 F.C.TABS.</t>
   </si>
   <si>
@@ -335,6 +350,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MAVILOR 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -605,7 +629,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:00 PM</t>
+    <t>Thursday, 2 October, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1510,7 +1534,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1520,11 +1544,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1536,14 +1560,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1553,11 +1577,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1569,28 +1593,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1602,28 +1626,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1635,14 +1659,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1685,14 +1709,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1701,14 +1725,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1751,14 +1775,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1784,14 +1808,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1800,14 +1824,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1817,14 +1841,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1850,14 +1874,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1866,14 +1890,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1883,14 +1907,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1949,14 +1973,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1982,14 +2006,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2015,14 +2039,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2031,7 +2055,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2044,18 +2068,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2071,7 +2095,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2110,7 +2134,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2118,10 +2142,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2130,14 +2154,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2147,14 +2171,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2163,7 +2187,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2180,7 +2204,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2203,7 +2227,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2236,7 +2260,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2250,7 +2274,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2262,28 +2286,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2312,14 +2336,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2328,14 +2352,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2345,14 +2369,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2361,28 +2385,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2394,14 +2418,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2418,7 +2442,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2434,13 +2458,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2448,10 +2472,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2460,28 +2484,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2493,14 +2517,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2510,11 +2534,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2533,13 +2557,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2550,7 +2574,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2566,24 +2590,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2592,14 +2616,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2609,14 +2633,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2632,7 +2656,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2649,7 +2673,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2665,13 +2689,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2682,7 +2706,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2698,7 +2722,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2708,11 +2732,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>20</v>
@@ -2724,14 +2748,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,14 +2765,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2757,14 +2781,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,11 +2798,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2790,14 +2814,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,11 +2831,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2847,7 +2871,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2856,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2873,14 +2897,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2889,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,14 +2930,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2922,31 +2946,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>135</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,7 +2979,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2968,18 +2992,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,28 +3012,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3021,31 +3045,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3054,31 +3078,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,28 +3111,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>63</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3133,18 +3157,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,66 +3177,165 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3476.8649999999998</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>198</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
-        <v>199</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>200</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>64</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>54</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>55</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>201</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>202</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>54</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>132</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>203</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>40</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>54</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>204</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3735.645</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>206</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>207</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>208</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3516,10 +3639,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,15 +44,24 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACRETIN 0.025% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>80.00</t>
   </si>
   <si>
@@ -374,6 +383,12 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>NATRY SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>NEUROVIT 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -386,9 +401,6 @@
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -437,6 +449,15 @@
     <t>66.5000</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -629,7 +650,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:02 PM</t>
+    <t>Thursday, 2 October, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1303,7 +1324,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1313,14 +1334,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1329,14 +1350,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1346,14 +1367,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1379,11 +1400,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>20</v>
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1419,7 +1440,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1435,7 +1456,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1445,14 +1466,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1485,7 +1506,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1501,7 +1522,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1544,14 +1565,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1560,14 +1581,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1577,11 +1598,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1600,7 +1621,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1610,11 +1631,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1626,28 +1647,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1659,20 +1680,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1699,7 +1720,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1716,7 +1737,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1732,7 +1753,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1798,7 +1819,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1808,14 +1829,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1848,7 +1869,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1864,7 +1885,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1930,7 +1951,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1944,10 +1965,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1963,7 +1984,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1973,14 +1994,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2013,7 +2034,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2029,7 +2050,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2039,14 +2060,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2079,7 +2100,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2095,7 +2116,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2112,7 +2133,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2128,13 +2149,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2142,10 +2163,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2154,31 +2175,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2194,7 +2215,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2227,7 +2248,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2260,7 +2281,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2277,7 +2298,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2293,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,7 +2357,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2359,7 +2380,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2369,14 +2390,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2392,21 +2413,21 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>59</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2435,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,28 +2472,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2534,11 +2555,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2550,31 +2571,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,11 +2621,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2616,31 +2637,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,28 +2670,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2682,20 +2703,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2706,7 +2727,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2722,7 +2743,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2732,14 +2753,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2748,14 +2769,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2786,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,31 +2802,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2814,14 +2835,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2831,14 +2852,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2868,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,14 +2885,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2880,14 +2901,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2918,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2913,14 +2934,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2967,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2963,14 +2984,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,14 +3033,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,14 +3050,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3045,31 +3066,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,7 +3099,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3091,18 +3112,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,28 +3132,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3144,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3177,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3210,28 +3231,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3243,31 +3264,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3276,66 +3297,165 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3735.645</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>206</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>207</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>67</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>57</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>58</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>208</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>209</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>57</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>136</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>210</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>43</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>57</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>211</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3918.645</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>213</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>214</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>215</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3654,10 +3774,25 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -650,7 +650,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:05 PM</t>
+    <t>Thursday, 2 October, 2025 8:08 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -107,6 +107,18 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ANTOPRAL 40MG 14 TAB.</t>
   </si>
   <si>
@@ -281,9 +293,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -323,9 +332,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -417,9 +423,6 @@
   </si>
   <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
@@ -1456,7 +1459,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1466,11 +1469,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1482,14 +1485,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1506,7 +1509,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1522,7 +1525,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1532,11 +1535,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>23</v>
@@ -1548,14 +1551,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1598,14 +1601,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1614,14 +1617,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1631,11 +1634,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1647,14 +1650,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1693,15 +1696,15 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1713,28 +1716,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1746,14 +1749,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1763,14 +1766,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1779,14 +1782,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1803,7 +1806,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1812,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1836,7 +1839,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1845,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1869,7 +1872,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1885,7 +1888,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1895,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1935,7 +1938,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1951,7 +1954,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1961,14 +1964,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1977,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2031,10 +2034,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2067,7 +2070,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2083,7 +2086,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,14 +2096,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2109,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2133,7 +2136,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2149,7 +2152,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2163,10 +2166,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2175,31 +2178,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2215,13 +2218,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2229,10 +2232,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2258,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,11 +2294,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2307,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2380,7 +2383,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2390,7 +2393,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2413,7 +2416,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2423,11 +2426,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2472,31 +2475,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2505,31 +2508,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,14 +2558,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2578,21 +2581,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2604,28 +2607,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2637,31 +2640,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,31 +2673,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2703,28 +2706,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2753,11 +2756,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2776,7 +2779,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2786,11 +2789,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2802,31 +2805,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2835,31 +2838,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2868,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -2901,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2984,14 +2987,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3000,14 +3003,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,11 +3020,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3033,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>183</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3102,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3119,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,14 +3135,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,14 +3152,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3165,28 +3168,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3198,28 +3201,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3231,28 +3234,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3264,31 +3267,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3300,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3330,31 +3333,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3370,21 +3373,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3396,66 +3399,99 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>211</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>47</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>61</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
         <v>212</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3918.645</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
         <v>213</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3942.645</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
         <v>214</v>
       </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
         <v>215</v>
       </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>216</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3789,10 +3825,15 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -269,13 +269,16 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:8</t>
+    <t>2:6</t>
   </si>
   <si>
     <t>144.00</t>
   </si>
   <si>
-    <t>23.0400</t>
+    <t>46.0800</t>
+  </si>
+  <si>
+    <t>0:4</t>
   </si>
   <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
@@ -653,7 +656,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:08 PM</t>
+    <t>Thursday, 2 October, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1971,7 +1974,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1980,7 +1983,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1997,11 +2000,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>23</v>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2030,7 +2033,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2046,14 +2049,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2063,11 +2066,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -2079,7 +2082,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2096,11 +2099,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2112,14 +2115,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2129,11 +2132,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>23</v>
@@ -2145,7 +2148,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2178,7 +2181,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2195,11 +2198,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2211,7 +2214,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2228,7 +2231,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2244,7 +2247,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2261,11 +2264,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2277,7 +2280,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2294,11 +2297,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2310,7 +2313,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2327,11 +2330,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2360,11 +2363,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2376,7 +2379,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2397,7 +2400,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2409,7 +2412,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2426,11 +2429,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2459,11 +2462,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2475,7 +2478,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2508,7 +2511,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2541,14 +2544,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2558,11 +2561,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2624,11 +2627,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2640,7 +2643,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2657,11 +2660,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2673,7 +2676,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2690,11 +2693,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2723,11 +2726,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2739,14 +2742,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2756,11 +2759,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2772,7 +2775,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2805,7 +2808,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2822,11 +2825,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2838,7 +2841,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2855,11 +2858,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2871,7 +2874,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2892,7 +2895,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -2904,7 +2907,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2921,11 +2924,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -2937,7 +2940,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2954,11 +2957,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2970,7 +2973,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2987,11 +2990,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>23</v>
@@ -3003,14 +3006,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3020,11 +3023,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3036,7 +3039,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3053,11 +3056,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3069,7 +3072,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3102,7 +3105,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3119,14 +3122,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3135,7 +3138,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3152,11 +3155,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3168,7 +3171,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3201,14 +3204,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3218,11 +3221,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3234,7 +3237,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3251,11 +3254,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3267,14 +3270,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3284,11 +3287,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3300,14 +3303,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3317,11 +3320,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3333,7 +3336,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3350,11 +3353,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3366,7 +3369,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3399,14 +3402,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3432,7 +3435,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3449,11 +3452,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3461,13 +3464,13 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>3942.645</v>
+        <v>3965.6849999999999</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c t="s" r="A74" s="14">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3475,13 +3478,13 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c t="s" r="G74" s="15">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
       <c t="s" r="K74" s="17">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:09 PM</t>
+    <t>Thursday, 2 October, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:12 PM</t>
+    <t>Thursday, 2 October, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -656,7 +656,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:23 PM</t>
+    <t>Thursday, 2 October, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>38.6100</t>
   </si>
   <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -578,6 +587,15 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -650,13 +668,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 2 October, 2025 8:25 PM</t>
+    <t>Thursday, 2 October, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2037,10 +2049,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2070,10 +2082,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2106,7 +2118,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2122,7 +2134,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2169,10 +2181,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2221,13 +2233,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2235,10 +2247,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2247,7 +2259,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2260,18 +2272,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2353,7 +2365,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2370,7 +2382,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2386,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2412,7 +2424,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2429,11 +2441,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,7 +2474,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2485,7 +2497,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2511,31 +2523,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2544,31 +2556,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,28 +2622,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2650,13 +2662,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2683,13 +2695,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2700,7 +2712,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2733,7 +2745,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2749,21 +2761,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2848,13 +2860,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2865,7 +2877,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2881,24 +2893,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2924,7 +2936,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2947,7 +2959,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2964,7 +2976,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2980,7 +2992,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2997,7 +3009,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3013,7 +3025,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3056,11 +3068,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3112,7 +3124,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3129,7 +3141,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>185</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3178,7 +3190,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3195,7 +3207,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3211,13 +3223,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3244,13 +3256,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3277,7 +3289,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,11 +3299,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3452,49 +3464,115 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3965.6849999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>215</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>216</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
         <v>217</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>61</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>34</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>218</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>47</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>61</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>193</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4071.6849999999999</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>219</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>220</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>221</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3833,10 +3911,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -455,6 +455,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>37.6000</t>
+  </si>
+  <si>
     <t>REALCOXSTAR 90MG 14TAB</t>
   </si>
   <si>
@@ -656,6 +668,15 @@
     <t>5.3200</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -668,7 +689,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:26 PM</t>
+    <t>Thursday, 2 October, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2728,21 +2749,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>23</v>
@@ -2754,7 +2775,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2771,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2787,20 +2808,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2827,7 +2848,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,11 +2858,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2853,14 +2874,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,11 +2891,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2886,31 +2907,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,31 +2940,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +2973,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2990,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3023,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3018,14 +3039,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3075,7 +3096,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3091,7 +3112,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3117,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3155,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3188,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>188</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3190,7 +3211,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3207,7 +3228,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,7 +3270,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3266,11 +3287,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3282,28 +3303,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3315,14 +3336,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,11 +3353,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3348,14 +3369,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3405,7 +3426,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3421,7 +3442,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,14 +3452,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3464,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3513,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3530,49 +3551,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>194</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4071.6849999999999</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>219</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>220</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>221</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>223</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>224</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>61</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>34</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>225</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>47</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>61</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>197</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>4112.2849999999999</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>226</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>227</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>228</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3921,10 +4008,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACRETIN 0.025% CREAM 30 GM</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -689,7 +698,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:27 PM</t>
+    <t>Thursday, 2 October, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1347,7 +1356,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1356,14 +1365,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1373,14 +1382,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1389,14 +1398,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1413,7 +1422,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1439,14 +1448,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>27</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1479,7 +1488,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1512,7 +1521,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1528,7 +1537,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1538,14 +1547,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1578,7 +1587,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1594,7 +1603,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1604,14 +1613,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1620,14 +1629,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1644,7 +1653,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1670,14 +1679,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1703,14 +1712,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1743,7 +1752,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1765,18 +1774,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1785,31 +1794,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1818,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1835,14 +1844,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1875,7 +1884,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1908,7 +1917,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1924,7 +1933,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1990,7 +1999,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2056,7 +2065,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2089,7 +2098,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2103,10 +2112,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2136,10 +2145,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2172,7 +2181,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2188,7 +2197,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2235,10 +2244,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2287,13 +2296,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2301,10 +2310,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2313,31 +2322,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2353,7 +2362,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2370,7 +2379,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2386,7 +2395,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2403,7 +2412,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2419,7 +2428,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2436,7 +2445,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2452,7 +2461,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2462,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2528,14 +2537,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2551,7 +2560,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2561,14 +2570,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2577,31 +2586,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2610,31 +2619,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2660,14 +2669,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2676,7 +2685,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2689,18 +2698,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2716,13 +2725,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2733,7 +2742,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2749,7 +2758,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,20 +2784,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2799,7 +2808,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,13 +2824,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2832,7 +2841,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2848,24 +2857,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2874,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>63</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2907,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2947,13 +2956,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2964,7 +2973,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2980,24 +2989,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3046,7 +3055,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3063,7 +3072,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3079,7 +3088,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3096,7 +3105,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3112,7 +3121,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3122,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3155,14 +3164,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3211,7 +3220,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>192</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3237,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>195</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3277,7 +3286,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3294,7 +3303,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3310,7 +3319,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3327,7 +3336,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3343,13 +3352,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3360,7 +3369,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3376,13 +3385,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3393,7 +3402,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3409,24 +3418,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3435,31 +3444,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,20 +3477,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3492,7 +3501,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3508,13 +3517,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3525,7 +3534,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3541,24 +3550,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3567,31 +3576,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,66 +3609,99 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>198</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>4112.2849999999999</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>226</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>227</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>228</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>51</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>65</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>200</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4144.2849999999999</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>230</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>231</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4018,10 +4060,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -362,6 +362,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
@@ -386,6 +395,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 10MG 30 TAB.</t>
   </si>
   <si>
@@ -395,6 +413,15 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -593,10 +620,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>-16.8300</t>
-  </si>
-  <si>
-    <t>0:-1</t>
+    <t>16.8300</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -647,13 +671,16 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>20:0</t>
+    <t>19:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>29:0</t>
   </si>
   <si>
     <t>حفاضات كبار سن جير ميني 36ق</t>
@@ -674,7 +701,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>5.3200</t>
+    <t>7.3200</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -683,12 +713,15 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -698,7 +731,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:28 PM</t>
+    <t>Thursday, 2 October, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2329,13 +2362,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2343,10 +2376,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2355,7 +2388,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2368,18 +2401,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2461,7 +2494,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2478,7 +2511,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2504,11 +2537,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2570,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,28 +2652,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2669,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2718,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2735,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2850,28 +2883,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,31 +2949,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2949,28 +2982,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,31 +3015,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3081,31 +3114,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,7 +3164,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3154,7 +3187,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3180,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,7 +3230,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3220,7 +3253,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3253,7 +3286,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3263,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3286,7 +3319,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3296,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3312,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3329,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,28 +3444,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3444,28 +3477,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3477,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3510,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3543,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,14 +3593,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3609,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,14 +3659,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>38</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3649,7 +3682,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,49 +3692,214 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4144.2849999999999</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>229</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>230</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>231</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>232</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>44</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>65</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>233</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>235</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>75</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>65</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>66</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>44</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>65</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>221</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>237</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>238</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>65</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>38</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>239</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>51</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>65</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>208</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4483.9449999999997</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4065,10 +4263,35 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:31 PM</t>
+    <t>Thursday, 2 October, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -215,6 +224,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -245,6 +263,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DANDIVERA HAIR SHAMPOO 180ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -254,6 +281,9 @@
     <t>31.6800</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -281,9 +311,6 @@
     <t>2:6</t>
   </si>
   <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>46.0800</t>
   </si>
   <si>
@@ -377,6 +404,15 @@
     <t>550.00</t>
   </si>
   <si>
+    <t>LAMICTAL 100MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>226.00</t>
+  </si>
+  <si>
+    <t>226.0000</t>
+  </si>
+  <si>
     <t>LIPONA 20MG 10 F.C.TAB.</t>
   </si>
   <si>
@@ -644,12 +680,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>ببرونه صغير الجو</t>
   </si>
   <si>
@@ -731,7 +761,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:32 PM</t>
+    <t>Thursday, 2 October, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1801,7 +1831,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1811,11 +1841,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1827,28 +1857,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1860,20 +1890,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1900,7 +1930,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1917,7 +1947,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1933,7 +1963,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,14 +1973,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1959,14 +1989,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,11 +2006,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>27</v>
@@ -1992,14 +2022,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,11 +2039,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2025,14 +2055,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,11 +2072,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2058,14 +2088,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2105,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,7 +2121,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2108,14 +2138,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,14 +2154,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2171,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2187,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2204,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2190,14 +2220,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,14 +2237,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2223,7 +2253,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2240,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2286,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2303,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2319,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2336,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2352,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,14 +2369,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,14 +2385,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,11 +2402,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2388,28 +2418,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2421,7 +2451,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2438,14 +2468,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2454,14 +2484,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,11 +2501,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2487,14 +2517,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,11 +2534,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2520,7 +2550,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2533,18 +2563,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,14 +2583,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,11 +2600,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2586,14 +2616,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2633,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,7 +2649,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2636,11 +2666,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2652,7 +2682,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2669,11 +2699,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2685,14 +2715,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,11 +2732,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2718,14 +2748,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2765,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,31 +2781,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2814,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2831,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2847,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,11 +2864,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>38</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2850,28 +2880,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2883,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2923,24 +2953,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2949,31 +2979,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,28 +3012,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3015,28 +3045,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3048,14 +3078,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,11 +3095,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3081,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,7 +3144,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3127,18 +3157,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,31 +3177,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3204,7 +3234,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3220,7 +3250,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3260,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3246,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,31 +3309,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,11 +3392,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3378,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3425,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,14 +3441,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,11 +3458,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3444,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>44</v>
+        <v>205</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,11 +3491,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3477,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,11 +3524,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3510,31 +3540,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,31 +3573,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,31 +3606,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,28 +3639,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3642,31 +3672,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,31 +3705,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,31 +3738,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,31 +3771,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,31 +3804,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,31 +3837,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>39</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,66 +3870,231 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4483.9449999999997</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>240</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>241</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>242</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>44</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>68</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>243</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>245</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>81</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>68</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>69</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>246</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>44</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>68</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>231</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>248</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>68</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>38</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>51</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>68</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>220</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>5424.9449999999997</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>250</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>251</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>252</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4483,35 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -404,6 +404,15 @@
     <t>550.00</t>
   </si>
   <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>LAMICTAL 100MG 30 TAB.</t>
   </si>
   <si>
@@ -575,12 +584,6 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
     <t>SITAGLIFORM50\1000 TAB</t>
   </si>
   <si>
@@ -761,7 +764,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:34 PM</t>
+    <t>Thursday, 2 October, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2596,7 +2599,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2755,7 +2758,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2788,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2805,7 +2808,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2821,7 +2824,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,7 +2850,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2864,11 +2867,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,7 +2900,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2920,7 +2923,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,31 +2949,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2979,31 +2982,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3045,28 +3048,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3085,13 +3088,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3118,7 +3121,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3144,20 +3147,20 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3201,7 +3204,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3217,21 +3220,21 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,11 +3263,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>70</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3316,24 +3319,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,31 +3345,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>205</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3576,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,11 +3593,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,11 +3626,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,7 +3675,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3689,11 +3692,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3712,21 +3715,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>85</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3788,14 +3791,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3804,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3821,14 +3824,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3837,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>241</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3903,7 +3906,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,14 +3939,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,14 +3956,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3976,7 +3979,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,14 +3989,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4009,7 +4012,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,49 +4055,82 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>51</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>68</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>221</v>
       </c>
-      <c t="s" r="Q87" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>5424.9449999999997</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>250</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>5546.9449999999997</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
         <v>251</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
         <v>252</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>253</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4508,10 +4544,15 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -764,7 +764,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:36 PM</t>
+    <t>Thursday, 2 October, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -764,7 +764,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:40 PM</t>
+    <t>Thursday, 2 October, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -647,9 +659,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -659,7 +668,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
+    <t>33.6600</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -734,10 +743,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>7.3200</t>
-  </si>
-  <si>
-    <t>3:1</t>
+    <t>9.3200</t>
+  </si>
+  <si>
+    <t>4:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -746,7 +755,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>شاش 15 سم</t>
@@ -764,7 +773,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:42 PM</t>
+    <t>Thursday, 2 October, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2181,7 +2190,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2223,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2263,7 +2272,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,14 +2364,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2395,7 +2404,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2405,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2461,7 +2470,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2537,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2553,31 +2562,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,7 +2595,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,7 +2628,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2632,15 +2641,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2652,7 +2661,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2669,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2685,7 +2694,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2702,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2718,7 +2727,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2735,11 +2744,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2768,11 +2777,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,11 +2810,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2850,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2883,7 +2892,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>18</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,31 +2991,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,31 +3024,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3081,28 +3090,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3114,28 +3123,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3171,7 +3180,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3187,21 +3196,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>27</v>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3246,20 +3255,20 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3286,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3345,31 +3354,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3378,31 +3387,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>41</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3461,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3494,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,14 +3519,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3534,7 +3543,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3550,7 +3559,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3593,14 +3602,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3626,7 +3635,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3649,7 +3658,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3666,7 +3675,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3682,7 +3691,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3699,7 +3708,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3741,28 +3750,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>85</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3781,7 +3790,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3814,7 +3823,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3824,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3857,14 +3866,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3930,7 +3939,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>242</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>245</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4022,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>222</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>38</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4088,49 +4097,82 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>222</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>5546.9449999999997</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
-        <v>251</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
-        <v>252</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>253</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>51</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>68</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>224</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5580.6549999999997</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4549,10 +4591,15 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -284,16 +293,28 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>11.8800</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DIGENORM SYRUP 120 ML</t>
@@ -308,6 +329,15 @@
     <t>110.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOXIUM 500MG 30 CAPS.</t>
   </si>
   <si>
@@ -473,9 +503,6 @@
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>135.0000</t>
   </si>
   <si>
@@ -488,6 +515,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -518,9 +554,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -569,12 +602,18 @@
     <t>66.5000</t>
   </si>
   <si>
+    <t>RELATROLENE 25 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
     <t>85.0000</t>
   </si>
   <si>
@@ -704,9 +743,6 @@
     <t>بلاستر مترسيلك 10 سم</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -743,10 +779,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>9.3200</t>
-  </si>
-  <si>
-    <t>4:1</t>
+    <t>15.3200</t>
+  </si>
+  <si>
+    <t>7:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -755,9 +791,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>شاش 15 سم</t>
   </si>
   <si>
@@ -773,7 +806,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 8:47 PM</t>
+    <t>Thursday, 2 October, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1612,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1589,11 +1622,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>27</v>
@@ -1605,14 +1638,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1622,14 +1655,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1638,14 +1671,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1678,7 +1711,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1688,14 +1721,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1704,14 +1737,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1744,7 +1777,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,11 +1787,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1770,14 +1803,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1820,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1803,14 +1836,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1820,11 +1853,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1843,7 +1876,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1876,7 +1909,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1886,11 +1919,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1902,28 +1935,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1935,20 +1968,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1975,7 +2008,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2008,7 +2041,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2025,7 +2058,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2041,7 +2074,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,14 +2084,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2067,14 +2100,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2091,7 +2124,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2107,7 +2140,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2124,7 +2157,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2140,7 +2173,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,14 +2183,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2166,14 +2199,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,14 +2216,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2199,14 +2232,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2249,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2239,7 +2272,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2256,7 +2289,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2282,14 +2315,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2305,7 +2338,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2338,7 +2371,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2371,7 +2404,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2414,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2430,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>27</v>
@@ -2430,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2463,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2484,10 +2517,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2529,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2517,10 +2550,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,7 +2562,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2546,11 +2579,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2562,14 +2595,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,14 +2612,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,31 +2628,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,28 +2661,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2661,14 +2694,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2711,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2694,31 +2727,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2727,28 +2760,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2760,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,11 +2810,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,14 +2826,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2826,14 +2859,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,11 +2876,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2859,14 +2892,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2925,14 +2958,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2958,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,14 +3008,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2991,14 +3024,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3041,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,28 +3057,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3057,14 +3090,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3107,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3090,14 +3123,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3123,31 +3156,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,28 +3189,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3189,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3213,7 +3246,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3229,24 +3262,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,28 +3288,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3288,14 +3321,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3321,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3361,24 +3394,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,31 +3420,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,31 +3453,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3503,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3519,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,11 +3536,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3519,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,31 +3585,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3635,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,11 +3668,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>27</v>
@@ -3651,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3734,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3717,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3757,7 +3790,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,11 +3800,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>86</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3783,31 +3816,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>100</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3823,13 +3856,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3840,7 +3873,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3856,24 +3889,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3889,21 +3922,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3915,31 +3948,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3948,31 +3981,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3981,31 +4014,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,31 +4047,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,31 +4080,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,31 +4113,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,66 +4146,231 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>224</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5580.6549999999997</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>254</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>255</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>256</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>47</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>71</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>259</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>260</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>84</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>71</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>72</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>47</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>71</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>247</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>263</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>71</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>41</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>54</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>71</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>237</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5873.1549999999997</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4794,35 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:11 PM</t>
+    <t>Thursday, 2 October, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>327.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>GAST-REG 100 MG 30 TABS.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -806,7 +815,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:12 PM</t>
+    <t>Thursday, 2 October, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1959,7 +1968,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1981,15 +1990,15 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2001,28 +2010,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,11 +2060,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2067,14 +2076,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2124,7 +2133,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2140,7 +2149,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2150,14 +2159,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2183,14 +2192,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2232,14 +2241,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2289,7 +2298,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2322,7 +2331,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2338,7 +2347,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2348,14 +2357,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2437,7 +2446,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2588,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2649,10 +2658,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2734,13 +2743,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2748,10 +2757,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,7 +2769,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2773,18 +2782,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2806,7 +2815,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2965,7 +2974,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3031,7 +3040,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3048,7 +3057,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3090,7 +3099,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,7 +3149,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>139</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3163,7 +3172,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,31 +3198,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3222,31 +3231,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3262,7 +3271,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3281,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,28 +3297,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3328,13 +3337,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3361,7 +3370,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,14 +3380,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,20 +3396,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3427,13 +3436,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3460,24 +3469,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>96</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,28 +3495,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>73</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3585,31 +3594,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,24 +3634,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>44</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,7 +3677,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3691,7 +3700,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3708,7 +3717,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3724,7 +3733,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3741,7 +3750,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3842,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,7 +3858,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3889,7 +3898,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3906,7 +3915,7 @@
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3922,7 +3931,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3939,7 +3948,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>88</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>89</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3981,28 +3990,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>203</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4021,21 +4030,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4047,31 +4056,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4093,18 +4102,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,31 +4122,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,20 +4155,20 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4170,7 +4179,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>257</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4179,7 +4188,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4192,18 +4201,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>70</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,31 +4221,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,31 +4254,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,31 +4287,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>263</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4311,66 +4320,99 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5873.1549999999997</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>265</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>266</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>267</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>54</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>75</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>240</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5888.9949999999999</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>268</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>269</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>270</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4861,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -572,6 +572,12 @@
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -767,49 +773,58 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن جير ميني 36ق</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>22.5000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>15.3200</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>شاش 15 سم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>29:0</t>
   </si>
   <si>
-    <t>حفاضات كبار سن جير ميني 36ق</t>
-  </si>
-  <si>
-    <t>0:15</t>
-  </si>
-  <si>
-    <t>450.00</t>
-  </si>
-  <si>
-    <t>22.5000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>15.3200</t>
-  </si>
-  <si>
-    <t>7:1</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شاش 15 سم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>30:0</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>معجون اسنان فلورو بالكولا</t>
@@ -3337,13 +3352,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3351,10 +3366,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3363,28 +3378,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3429,28 +3444,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>27</v>
@@ -3462,28 +3477,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3495,31 +3510,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3535,21 +3550,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,11 +3626,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3627,31 +3642,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,31 +3675,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>27</v>
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3743,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3759,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3807,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3824,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,7 +3857,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3865,7 +3880,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3890,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3908,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3924,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3941,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3974,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,7 +4005,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>92</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4023,28 +4038,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>206</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>92</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,7 +4088,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4096,7 +4111,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>111</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4172,14 +4187,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4203,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4212,7 +4227,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>260</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,7 +4236,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>74</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4320,14 +4335,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,14 +4352,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4370,49 +4385,82 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5888.9949999999999</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>268</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>269</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>270</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>272</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>54</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>75</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>242</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5966.835</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>273</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>274</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>275</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4866,10 +4914,15 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:15 PM</t>
+    <t>Thursday, 2 October, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -830,7 +830,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:16 PM</t>
+    <t>Thursday, 2 October, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -284,6 +293,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DANDIVERA HAIR SHAMPOO 180ML</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
     <t>DOXIUM 500MG 30 CAPS.</t>
   </si>
   <si>
@@ -371,6 +398,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -593,9 +629,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -830,7 +863,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:19 PM</t>
+    <t>Thursday, 2 October, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1636,7 +1669,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1669,7 +1702,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1679,11 +1712,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>27</v>
@@ -1695,14 +1728,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1712,14 +1745,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1728,14 +1761,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1768,7 +1801,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1778,14 +1811,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1794,14 +1827,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1834,7 +1867,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1844,11 +1877,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -1860,14 +1893,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1877,14 +1910,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1893,14 +1926,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1910,11 +1943,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1933,7 +1966,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1966,7 +1999,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1976,14 +2009,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1992,14 +2025,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2009,14 +2042,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2025,28 +2058,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2058,20 +2091,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2098,7 +2131,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2131,7 +2164,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2148,7 +2181,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2164,7 +2197,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2174,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2190,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2214,7 +2247,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2230,7 +2263,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2263,7 +2296,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2273,11 +2306,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2289,14 +2322,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2306,14 +2339,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2329,7 +2362,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2339,14 +2372,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2355,14 +2388,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2372,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2388,14 +2421,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2405,14 +2438,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2421,14 +2454,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2445,7 +2478,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2461,7 +2494,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2471,14 +2504,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>119</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2487,7 +2520,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2504,11 +2537,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2520,14 +2553,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,11 +2570,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2553,14 +2586,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2570,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2586,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2669,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2652,14 +2685,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2676,7 +2709,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2692,7 +2725,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2706,10 +2739,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2725,7 +2758,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,14 +2768,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2751,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2768,7 +2801,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2791,21 +2824,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>27</v>
@@ -2817,31 +2850,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2850,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2867,11 +2900,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2883,14 +2916,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,11 +2933,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2916,31 +2949,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2956,13 +2989,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2989,7 +3022,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3022,7 +3055,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,11 +3065,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3048,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,14 +3098,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3081,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3114,14 +3147,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,11 +3164,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3147,14 +3180,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3164,11 +3197,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3180,14 +3213,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3213,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3246,28 +3279,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3279,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3296,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3312,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,11 +3362,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3345,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,28 +3411,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3411,14 +3444,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3428,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3444,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3461,14 +3494,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3484,13 +3517,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3498,10 +3531,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3510,7 +3543,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3523,18 +3556,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3543,28 +3576,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3576,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3609,31 +3642,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3642,7 +3675,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3659,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3675,31 +3708,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3708,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>58</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3725,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3741,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,11 +3824,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3814,13 +3847,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3831,7 +3864,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3847,7 +3880,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3873,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3906,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3923,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3946,7 +3979,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3963,7 +3996,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +4012,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4038,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,7 +4055,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4045,7 +4078,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>93</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4071,31 +4104,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>208</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,7 +4137,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4117,18 +4150,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4137,31 +4170,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4170,31 +4203,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4210,24 +4243,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4236,31 +4269,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>263</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,31 +4302,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,31 +4335,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4335,31 +4368,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,31 +4401,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,66 +4434,198 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5966.835</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>273</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>274</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>275</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>278</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>91</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>78</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>79</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>279</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>50</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>78</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>263</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>281</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>78</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>44</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>57</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>78</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>253</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6158.335</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>284</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>285</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>286</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4919,10 +5084,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -824,16 +836,25 @@
     <t>22.5000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>15.3200</t>
-  </si>
-  <si>
-    <t>7:1</t>
+    <t>17.3200</t>
+  </si>
+  <si>
+    <t>8:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -863,7 +884,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:20 PM</t>
+    <t>Thursday, 2 October, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2104,15 +2125,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2124,28 +2145,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2174,11 +2195,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2190,14 +2211,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2207,14 +2228,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,14 +2244,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2247,7 +2268,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2273,14 +2294,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2289,14 +2310,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2306,14 +2327,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2322,14 +2343,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2339,14 +2360,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2355,14 +2376,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2372,14 +2393,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2388,14 +2409,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2405,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2421,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2445,7 +2466,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2454,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2478,7 +2499,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2504,14 +2525,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,14 +2541,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2537,11 +2558,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>27</v>
@@ -2553,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2570,14 +2591,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2626,7 +2647,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2636,14 +2657,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2652,14 +2673,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2669,11 +2690,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>27</v>
@@ -2685,14 +2706,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2739,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2735,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2751,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2791,7 +2812,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2834,14 +2855,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2857,7 +2878,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2916,7 +2937,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2949,31 +2970,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2982,7 +3003,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2995,18 +3016,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3015,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3028,15 +3049,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3048,7 +3069,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3081,7 +3102,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3098,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3114,7 +3135,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3131,11 +3152,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3147,7 +3168,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,11 +3218,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3246,14 +3267,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3263,14 +3284,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3279,14 +3300,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,11 +3317,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3312,7 +3333,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3329,11 +3350,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,11 +3383,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,31 +3432,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,31 +3465,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,31 +3564,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,28 +3597,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3649,21 +3670,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>27</v>
@@ -3675,28 +3696,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>27</v>
@@ -3708,31 +3729,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,24 +3762,24 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3781,7 +3802,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,11 +3812,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3807,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>162</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3840,31 +3861,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,31 +3894,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3927,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,11 +3944,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>47</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>27</v>
@@ -3939,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4010,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4026,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4029,7 +4050,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4045,7 +4066,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4071,14 +4092,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4109,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,7 +4125,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4121,14 +4142,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4175,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,14 +4208,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,7 +4224,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4220,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>98</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4236,28 +4257,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4269,28 +4290,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4302,31 +4323,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4335,28 +4356,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4368,31 +4389,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4408,24 +4429,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>274</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4447,7 +4468,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4458,7 +4479,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4474,24 +4495,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,7 +4521,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4513,18 +4534,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>43</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,31 +4554,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>95</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,66 +4587,132 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6158.335</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>284</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>285</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>286</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>287</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>288</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>82</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>44</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>290</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>57</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>82</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>257</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>6207.335</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>291</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>292</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>293</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5104,10 +5191,20 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>327.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -398,6 +407,12 @@
     <t>275.0000</t>
   </si>
   <si>
+    <t>ENERZAD EXTRA</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -443,6 +458,12 @@
     <t>26.00</t>
   </si>
   <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -884,7 +905,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:21 PM</t>
+    <t>Thursday, 2 October, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2053,7 +2074,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2096,14 +2117,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2129,11 +2150,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2145,28 +2166,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2178,20 +2199,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2218,7 +2239,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2251,7 +2272,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2268,7 +2289,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2284,7 +2305,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2334,7 +2355,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2350,7 +2371,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2367,7 +2388,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2383,7 +2404,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2400,7 +2421,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2416,7 +2437,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2442,14 +2463,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>115</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>61</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2515,7 +2536,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2565,7 +2586,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2581,7 +2602,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2614,7 +2635,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2631,7 +2652,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2647,7 +2668,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2673,31 +2694,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2812,7 +2833,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>27</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3003,7 +3024,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3016,18 +3037,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3036,28 +3057,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3102,7 +3123,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3115,18 +3136,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3135,7 +3156,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3148,15 +3169,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3168,7 +3189,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3185,11 +3206,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3201,7 +3222,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3218,11 +3239,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3251,11 +3272,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3284,14 +3305,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3300,14 +3321,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3406,7 +3427,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3439,7 +3460,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3465,28 +3486,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3498,14 +3519,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3515,14 +3536,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3564,31 +3585,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3597,31 +3618,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3630,7 +3651,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3647,11 +3668,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3670,7 +3691,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3680,14 +3701,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3696,31 +3717,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3746,14 +3767,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3762,31 +3783,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>218</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3795,31 +3816,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3845,14 +3866,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3868,21 +3889,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3894,31 +3915,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3960,14 +3981,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3977,14 +3998,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3993,31 +4014,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4026,14 +4047,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4043,11 +4064,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>27</v>
@@ -4059,14 +4080,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4076,14 +4097,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4109,11 +4130,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4142,11 +4163,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>114</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4182,7 +4203,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4198,7 +4219,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4224,14 +4245,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>103</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4297,13 +4318,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4314,7 +4335,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4330,21 +4351,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>121</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4356,31 +4377,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>105</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4389,31 +4410,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4422,31 +4443,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>124</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4455,31 +4476,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4488,31 +4509,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4521,31 +4542,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>117</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4554,28 +4575,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4587,7 +4608,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4600,18 +4621,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>43</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4620,31 +4641,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>44</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,66 +4674,165 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>258</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>6207.335</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>291</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>292</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>293</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>50</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>85</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>274</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>295</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>85</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>44</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>297</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>57</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>85</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>264</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6446.0050000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>298</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>299</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>300</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5201,10 +5321,25 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -452,6 +452,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -461,9 +470,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -725,6 +731,9 @@
     <t>136.6200</t>
   </si>
   <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -905,7 +914,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:23 PM</t>
+    <t>Thursday, 2 October, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2866,7 +2875,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2880,10 +2889,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2958,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2998,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3041,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3064,7 +3073,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3078,10 +3087,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3090,7 +3099,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3123,31 +3132,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3177,10 +3186,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3189,7 +3198,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3202,15 +3211,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3239,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3255,7 +3264,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3272,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3288,7 +3297,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3305,11 +3314,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3338,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3354,14 +3363,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3371,7 +3380,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3394,7 +3403,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3420,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3453,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3470,7 +3479,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3503,7 +3512,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3526,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3536,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3552,14 +3561,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3569,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3585,31 +3594,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3618,31 +3627,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3684,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3701,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3724,13 +3733,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3738,10 +3747,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3750,28 +3759,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3790,7 +3799,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3816,28 +3825,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3849,28 +3858,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3882,31 +3891,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3922,21 +3931,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4014,31 +4023,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4047,31 +4056,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4087,7 +4096,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4097,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4130,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4179,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>148</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4262,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4311,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4328,11 +4337,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>27</v>
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4361,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4377,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4394,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>105</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4410,28 +4419,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4443,28 +4452,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4493,14 +4502,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4526,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>124</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4559,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4575,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>279</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4608,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>288</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4641,7 +4650,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4658,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4674,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4691,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4707,7 +4716,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4740,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4773,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4790,49 +4799,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6446.0050000000001</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>297</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>298</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>85</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>44</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>299</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>300</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>57</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>85</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>267</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6709.0050000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>301</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>302</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>303</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5336,10 +5411,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -566,6 +566,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>MARCAL 30 TABLETS</t>
+  </si>
+  <si>
+    <t>59.4000</t>
+  </si>
+  <si>
     <t>MARPALENE 0.1% TOPICAL CREAM 30 GM</t>
   </si>
   <si>
@@ -914,7 +920,7 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:31 PM</t>
+    <t>Thursday, 2 October, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3337,7 +3343,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,14 +3353,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,7 +3369,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3380,11 +3386,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3396,14 +3402,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,7 +3419,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3436,7 +3442,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3452,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,14 +3468,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3485,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3501,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,7 +3518,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3545,7 +3551,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3568,7 +3574,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,11 +3584,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3617,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>18</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,31 +3633,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,31 +3666,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3766,13 +3772,13 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3780,10 +3786,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,28 +3798,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3832,7 +3838,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3848,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,28 +3864,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>50</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>27</v>
@@ -3891,28 +3897,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>27</v>
@@ -3924,31 +3930,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3964,21 +3970,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>113</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4013,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>86</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,11 +4046,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4056,31 +4062,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,7 +4095,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4102,18 +4108,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4128,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4162,7 +4168,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4178,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>27</v>
@@ -4188,14 +4194,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4211,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>27</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4277,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4293,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,7 +4310,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4327,7 +4333,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,14 +4343,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4370,14 +4376,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4409,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4425,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4442,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,7 +4458,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4469,11 +4475,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4485,28 +4491,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4518,14 +4524,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,7 +4541,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4558,7 +4564,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,14 +4590,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4607,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4640,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4673,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,7 +4689,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,7 +4722,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>120</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>86</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>87</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,14 +4805,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4838,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>44</v>
+        <v>279</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4854,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,49 +4871,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6709.0050000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>301</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
         <v>302</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>57</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>85</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>269</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6768.4049999999997</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>303</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>304</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>305</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5421,10 +5460,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -506,6 +506,15 @@
     <t>60.00</t>
   </si>
   <si>
+    <t>GRANITRYL 2 MG 5 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>300.0000</t>
+  </si>
+  <si>
     <t>GYNERA 21 C.TABS</t>
   </si>
   <si>
@@ -905,6 +914,27 @@
     <t>شاش 15 سم</t>
   </si>
   <si>
+    <t xml:space="preserve">فازلين بيور صغير </t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>فرش اسنان HASI</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -920,7 +950,13 @@
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:32 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3112,7 +3148,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3178,13 +3214,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3192,10 +3228,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3204,7 +3240,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3221,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3250,7 +3286,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3343,7 +3379,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3369,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3442,7 +3478,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3452,11 +3488,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3468,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3508,7 +3544,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3525,7 +3561,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3541,7 +3577,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,11 +3587,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3567,7 +3603,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3584,11 +3620,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3600,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,7 +3653,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3640,7 +3676,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,31 +3702,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,31 +3735,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3739,7 +3775,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3749,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>44</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3798,31 +3834,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3838,13 +3874,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3852,7 +3888,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3864,14 +3900,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3885,10 +3921,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,20 +3933,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3937,13 +3973,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3970,24 +4006,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,28 +4032,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4029,14 +4065,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4082,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4062,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4079,11 +4115,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4095,31 +4131,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4141,18 +4177,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,7 +4247,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>47</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4234,7 +4270,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4251,7 +4287,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4267,7 +4303,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4284,7 +4320,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4300,7 +4336,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4359,14 +4395,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4412,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,7 +4428,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4409,14 +4445,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4432,7 +4468,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4449,7 +4485,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4465,7 +4501,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4482,7 +4518,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4508,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4524,28 +4560,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4564,7 +4600,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4574,11 +4610,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4590,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4607,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4640,11 +4676,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4673,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,14 +4725,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4713,7 +4749,7 @@
         <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4746,7 +4782,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>293</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,7 +4791,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4772,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>296</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>120</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4795,7 +4831,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4805,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>86</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>87</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4821,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4838,14 +4874,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4871,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>44</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4887,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4904,49 +4940,214 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6768.4049999999997</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>303</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>304</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>305</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>306</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>307</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>85</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>282</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>308</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>50</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>85</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>282</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>310</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>85</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>44</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>312</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>57</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>85</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>272</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>313</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>314</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>85</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>276</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>7163.4049999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>315</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>316</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>317</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5465,10 +5666,35 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -158,6 +158,12 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
     <t>ARTHFREE 20MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -206,6 +212,15 @@
     <t>128.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -533,6 +548,9 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>JOINTINAL TAB</t>
   </si>
   <si>
@@ -599,6 +617,15 @@
     <t>159.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>METHYLTECHNO 1000MCG 30 ORODISSOLVABLE FILMS</t>
   </si>
   <si>
@@ -614,6 +641,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -728,9 +764,6 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>SINE UP SYRUP 120 ML</t>
   </si>
   <si>
@@ -752,9 +785,6 @@
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -956,7 +986,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:42 PM</t>
+    <t>Thursday, 2 October, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1927,7 +1957,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,11 +1967,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>27</v>
@@ -1953,14 +1983,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1970,11 +2000,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>27</v>
@@ -1986,14 +2016,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,11 +2033,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -2019,14 +2049,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2059,7 +2089,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,11 +2099,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2085,14 +2115,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,11 +2132,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2118,14 +2148,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2135,11 +2165,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>27</v>
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,14 +2198,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2184,14 +2214,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,14 +2231,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2217,14 +2247,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2250,28 +2280,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2283,14 +2313,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,11 +2330,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2316,28 +2346,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2349,14 +2379,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2366,14 +2396,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,14 +2429,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2415,14 +2445,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,11 +2462,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>27</v>
@@ -2448,14 +2478,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2495,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2481,14 +2511,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,11 +2528,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>27</v>
@@ -2514,14 +2544,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,11 +2561,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2547,14 +2577,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2571,7 +2601,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2610,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2627,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2613,14 +2643,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,14 +2660,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2646,14 +2676,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2693,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2709,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2726,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2712,14 +2742,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2729,14 +2759,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2745,31 +2775,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2785,7 +2815,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2825,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,31 +2841,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2844,14 +2874,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,14 +2891,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2877,14 +2907,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2894,14 +2924,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2910,7 +2940,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2927,14 +2957,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,14 +2973,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +2990,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2983,7 +3013,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,11 +3023,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3009,14 +3039,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3056,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3049,7 +3079,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,11 +3089,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3075,14 +3105,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,11 +3122,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>27</v>
@@ -3108,14 +3138,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3155,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,14 +3171,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3165,7 +3195,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3181,7 +3211,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3195,10 +3225,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3237,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,11 +3254,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3240,31 +3270,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3280,13 +3310,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3313,7 +3343,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3353,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,31 +3369,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,28 +3402,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3405,14 +3435,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3452,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3468,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,11 +3485,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3471,14 +3501,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,11 +3518,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3504,14 +3534,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3551,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3567,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3584,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3600,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3617,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3603,14 +3633,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3650,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,14 +3666,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3653,11 +3683,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>164</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3669,14 +3699,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,14 +3716,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3702,14 +3732,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,11 +3749,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>27</v>
@@ -3735,28 +3765,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3768,14 +3798,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,14 +3815,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,14 +3831,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3848,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3834,14 +3864,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3881,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,31 +3897,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,28 +3930,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3933,14 +3963,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3957,7 +3987,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3973,24 +4003,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3999,14 +4029,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4046,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,28 +4062,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>113</v>
+        <v>232</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4065,14 +4095,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,11 +4112,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4098,14 +4128,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4145,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>86</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,31 +4161,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4164,31 +4194,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4197,28 +4227,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4230,14 +4260,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>61</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4277,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4293,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,14 +4310,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4296,14 +4326,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,11 +4343,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4329,31 +4359,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4392,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,11 +4409,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4395,14 +4425,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4442,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4458,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4475,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>117</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>27</v>
@@ -4461,14 +4491,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,14 +4508,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,14 +4524,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,11 +4541,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>27</v>
@@ -4527,14 +4557,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,11 +4574,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4560,14 +4590,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,11 +4607,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>106</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4593,31 +4623,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,31 +4656,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>124</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,31 +4689,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,31 +4722,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,31 +4755,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4758,28 +4788,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4791,31 +4821,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>294</v>
+        <v>129</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,31 +4854,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>291</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,31 +4887,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4890,31 +4920,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,28 +4953,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4956,31 +4986,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>306</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,31 +5019,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>187</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5052,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,28 +5085,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5088,66 +5118,231 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>7163.4049999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>315</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
         <v>316</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>317</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>90</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>292</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>318</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>52</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>90</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>292</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>319</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>320</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>90</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>44</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>321</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>322</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>59</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>90</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>282</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>323</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>324</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>90</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>286</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7375.5349999999999</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>325</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>326</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>327</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5691,10 +5886,35 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -221,6 +221,21 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -281,9 +296,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -338,6 +350,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>COVAPRENDO 5/5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>DANDIVERA HAIR SHAMPOO 180ML</t>
   </si>
   <si>
@@ -377,10 +398,13 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>47.8800</t>
+    <t>59.7600</t>
   </si>
   <si>
     <t>DIGENORM SYRUP 120 ML</t>
@@ -449,6 +473,12 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 10 MG 30 TABS</t>
   </si>
   <si>
@@ -497,6 +527,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GAST-REG 100 MG 30 TABS.</t>
   </si>
   <si>
@@ -506,9 +545,6 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -539,6 +575,15 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
   </si>
   <si>
@@ -689,9 +734,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -842,7 +884,19 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>33.6600</t>
+    <t>50.4900</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8205:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
   </si>
   <si>
     <t>WINZOXIB 60 MG 20 F.C.TABS.</t>
@@ -863,6 +917,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -917,19 +977,13 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>17.3200</t>
-  </si>
-  <si>
-    <t>8:1</t>
+    <t>19.3200</t>
+  </si>
+  <si>
+    <t>9:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -986,7 +1040,7 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 9:47 PM</t>
+    <t>Thursday, 2 October, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,24 +2242,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2214,14 +2268,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2231,14 +2285,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2247,14 +2301,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2264,14 +2318,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2280,14 +2334,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2297,14 +2351,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2313,14 +2367,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2330,11 +2384,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2346,20 +2400,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2386,21 +2440,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2412,14 +2466,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2429,11 +2483,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2445,14 +2499,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2462,14 +2516,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2478,14 +2532,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2502,7 +2556,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2518,7 +2572,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2528,14 +2582,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2544,14 +2598,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2561,14 +2615,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2577,14 +2631,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2594,14 +2648,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2610,14 +2664,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2627,11 +2681,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2643,14 +2697,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2660,14 +2714,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2676,14 +2730,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2693,14 +2747,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2709,14 +2763,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2726,14 +2780,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2749,7 +2803,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2759,14 +2813,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2775,14 +2829,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2792,14 +2846,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2808,14 +2862,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2825,14 +2879,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2841,31 +2895,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2874,14 +2928,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2891,14 +2945,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2907,31 +2961,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2940,14 +2994,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2957,14 +3011,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2973,14 +3027,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2990,14 +3044,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3006,7 +3060,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3023,11 +3077,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3039,14 +3093,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3056,14 +3110,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3072,14 +3126,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3089,11 +3143,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3105,14 +3159,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3122,14 +3176,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3138,14 +3192,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3155,14 +3209,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3171,14 +3225,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3188,14 +3242,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3211,7 +3265,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3221,14 +3275,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3237,14 +3291,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3254,11 +3308,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3270,14 +3324,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3287,11 +3341,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3303,14 +3357,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3320,14 +3374,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3336,14 +3390,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3353,14 +3407,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3369,7 +3423,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3382,18 +3436,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3402,28 +3456,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3435,14 +3489,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3452,11 +3506,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3468,14 +3522,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3485,11 +3539,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3501,14 +3555,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3518,14 +3572,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3534,31 +3588,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3567,7 +3621,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3580,15 +3634,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3600,7 +3654,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3617,11 +3671,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3633,7 +3687,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3650,14 +3704,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3666,14 +3720,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3683,11 +3737,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3699,14 +3753,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3716,14 +3770,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3732,14 +3786,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3749,14 +3803,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3765,14 +3819,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3782,11 +3836,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3798,7 +3852,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3815,14 +3869,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3831,14 +3885,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3848,11 +3902,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3864,14 +3918,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3881,14 +3935,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3897,7 +3951,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3914,11 +3968,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3930,28 +3984,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3963,14 +4017,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3980,14 +4034,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3996,14 +4050,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4013,11 +4067,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4029,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4046,14 +4100,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4062,31 +4116,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>232</v>
+        <v>18</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4095,28 +4149,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4128,14 +4182,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4145,14 +4199,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4161,31 +4215,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4201,7 +4255,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4215,10 +4269,10 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4227,24 +4281,24 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>118</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4267,7 +4321,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4277,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4293,14 +4347,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4310,14 +4364,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4326,31 +4380,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4359,31 +4413,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4392,7 +4446,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4405,15 +4459,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4425,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4442,14 +4496,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4458,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4475,14 +4529,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4491,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4508,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>198</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4524,31 +4578,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4557,14 +4611,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4574,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>192</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4597,7 +4651,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4607,14 +4661,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4623,14 +4677,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4640,7 +4694,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4663,7 +4717,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4680,7 +4734,7 @@
         <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4696,7 +4750,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4729,7 +4783,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4739,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4755,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4772,11 +4826,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>111</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4788,31 +4842,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>249</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4821,31 +4875,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4854,28 +4908,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4887,31 +4941,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>294</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4920,31 +4974,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4953,28 +5007,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4986,7 +5040,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4999,18 +5053,18 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>304</v>
+        <v>117</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>306</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5019,31 +5073,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5052,28 +5106,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5085,20 +5139,20 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5106,10 +5160,10 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5118,31 +5172,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>130</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5164,18 +5218,18 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5184,7 +5238,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5197,18 +5251,18 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5217,31 +5271,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5250,31 +5304,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5283,66 +5337,297 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>324</v>
+        <v>107</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>286</v>
+        <v>95</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>287</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7375.5349999999999</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>325</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>326</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>327</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>329</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>72</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>330</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>332</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>43</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>72</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>333</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>334</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>335</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>72</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>312</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>336</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>52</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>72</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>312</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>337</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>338</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>72</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>44</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>339</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>340</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>59</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>72</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>300</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>341</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>342</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>72</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>306</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>7880.2849999999999</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
+        <v>343</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>344</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>345</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5911,10 +6196,45 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -290,6 +290,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -401,9 +410,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>59.7600</t>
   </si>
   <si>
@@ -572,7 +578,7 @@
     <t>124.00</t>
   </si>
   <si>
-    <t>124.0000</t>
+    <t>248.0000</t>
   </si>
   <si>
     <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
@@ -854,6 +860,12 @@
     <t>30.5000</t>
   </si>
   <si>
+    <t>TELONTAIR SYRUP</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -875,9 +887,6 @@
     <t>VETOCETAMOL 24 TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1040,7 +1049,10 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 10:43 PM</t>
+    <t>معجون كلوز اب الصغير</t>
+  </si>
+  <si>
+    <t>Thursday, 2 October, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2440,24 +2452,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,20 +2478,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2506,7 +2518,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2539,7 +2551,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2556,7 +2568,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2572,7 +2584,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2622,7 +2634,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2638,7 +2650,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2655,7 +2667,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2671,7 +2683,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2704,7 +2716,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2721,7 +2733,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2737,7 +2749,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,14 +2759,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2796,14 +2808,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,14 +2825,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,14 +2841,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,14 +2858,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2895,14 +2907,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2912,11 +2924,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>27</v>
@@ -2928,14 +2940,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2957,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,24 +2973,24 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -3001,24 +3013,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3056,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>27</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,14 +3072,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3077,14 +3089,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3110,14 +3122,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3143,14 +3155,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,11 +3188,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,7 +3244,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,7 +3353,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3364,7 +3376,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3419,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3444,10 +3456,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3473,11 +3485,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3489,7 +3501,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3506,14 +3518,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3522,14 +3534,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3539,11 +3551,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3572,14 +3584,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3588,28 +3600,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>27</v>
@@ -3642,10 +3654,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3654,7 +3666,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3667,15 +3679,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3687,7 +3699,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3704,11 +3716,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3720,7 +3732,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3737,11 +3749,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3770,14 +3782,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3793,7 +3805,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3803,14 +3815,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3819,7 +3831,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3836,11 +3848,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3852,7 +3864,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3885,14 +3897,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3902,14 +3914,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3925,7 +3937,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3935,14 +3947,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3951,7 +3963,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>27</v>
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4017,14 +4029,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4034,7 +4046,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4067,7 +4079,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4090,7 +4102,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4112,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4149,31 +4161,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4182,31 +4194,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4222,7 +4234,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4288,13 +4300,13 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4302,10 +4314,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4314,28 +4326,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4354,7 +4366,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4364,14 +4376,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4380,28 +4392,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>27</v>
@@ -4413,28 +4425,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>27</v>
@@ -4446,31 +4458,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>125</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4486,21 +4498,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4512,14 +4524,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4541,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>95</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4545,14 +4557,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4574,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4578,31 +4590,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>200</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4611,7 +4623,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4624,18 +4636,18 @@
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4644,14 +4656,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,14 +4673,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4677,14 +4689,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4694,11 +4706,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>47</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>27</v>
@@ -4710,14 +4722,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4727,14 +4739,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4743,14 +4755,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4760,14 +4772,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4776,14 +4788,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>27</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4793,14 +4805,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4809,28 +4821,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>166</v>
+        <v>284</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4842,14 +4854,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4859,14 +4871,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4882,7 +4894,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4892,14 +4904,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>290</v>
+        <v>168</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4908,14 +4920,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4925,14 +4937,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>94</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4941,14 +4953,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4958,14 +4970,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4974,14 +4986,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4991,14 +5003,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5007,14 +5019,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5024,14 +5036,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5040,7 +5052,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5057,11 +5069,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5080,21 +5092,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5106,28 +5118,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5139,14 +5151,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5168,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,14 +5184,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5189,14 +5201,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5205,14 +5217,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5222,14 +5234,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5238,14 +5250,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,14 +5267,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5271,14 +5283,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,14 +5300,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>324</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5304,7 +5316,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5321,14 +5333,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5337,14 +5349,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5354,14 +5366,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5370,14 +5382,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,14 +5399,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5403,14 +5415,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5420,11 +5432,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>333</v>
+        <v>98</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5436,14 +5448,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5453,14 +5465,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5469,14 +5481,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5486,14 +5498,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5519,11 +5531,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5535,14 +5547,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5552,14 +5564,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>301</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5568,14 +5580,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5585,49 +5597,148 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>7880.2849999999999</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>343</v>
       </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>59</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>72</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>303</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
         <v>344</v>
       </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
         <v>345</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>72</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>309</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>346</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>43</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>72</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>309</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>8079.2849999999999</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>347</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>348</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>349</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6231,10 +6342,25 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -434,6 +434,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOXIRAZOL 60 MG 14 CAPS.</t>
   </si>
   <si>
@@ -479,6 +491,9 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -734,6 +749,9 @@
     <t>NORGESIC 20 TAB.</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
   </si>
   <si>
@@ -749,9 +767,6 @@
     <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -917,6 +932,15 @@
     <t>94.5000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
@@ -959,6 +983,15 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -986,6 +1019,9 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -1037,9 +1073,6 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
@@ -1052,7 +1085,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 10:50 PM</t>
+    <t>Thursday, 2 October, 2025 11:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2947,7 +2980,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2957,14 +2990,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2973,14 +3006,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2990,14 +3023,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3006,28 +3039,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3039,31 +3072,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3079,7 +3112,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>27</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3089,14 +3122,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3105,14 +3138,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3122,14 +3155,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3138,7 +3171,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3155,11 +3188,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -3178,7 +3211,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3188,11 +3221,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3204,7 +3237,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3221,14 +3254,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3237,14 +3270,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3254,14 +3287,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3277,7 +3310,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3287,11 +3320,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3303,14 +3336,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3320,14 +3353,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3353,11 +3386,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3369,14 +3402,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3386,14 +3419,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3409,7 +3442,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3426,7 +3459,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3442,7 +3475,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3452,14 +3485,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3475,7 +3508,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3492,7 +3525,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3508,7 +3541,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3522,10 +3555,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3534,14 +3567,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3551,11 +3584,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3567,14 +3600,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3584,14 +3617,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3600,7 +3633,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3617,14 +3650,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3633,31 +3666,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3666,31 +3699,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3712,7 +3745,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3720,10 +3753,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3732,7 +3765,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3745,15 +3778,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3765,7 +3798,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3782,11 +3815,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3798,14 +3831,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3815,14 +3848,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3871,7 +3904,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3881,14 +3914,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3897,7 +3930,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3914,14 +3947,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3930,14 +3963,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3947,7 +3980,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3970,7 +4003,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4003,7 +4036,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4013,14 +4046,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4029,14 +4062,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4046,14 +4079,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4062,14 +4095,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4079,14 +4112,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4102,7 +4135,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4112,11 +4145,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4128,14 +4161,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4145,7 +4178,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4168,7 +4201,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4178,14 +4211,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4194,28 +4227,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>104</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4227,14 +4260,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4244,14 +4277,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4260,14 +4293,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4293,31 +4326,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4326,31 +4359,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4376,11 +4409,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4392,14 +4425,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4409,14 +4442,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>143</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4425,14 +4458,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4442,14 +4475,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4458,14 +4491,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4475,14 +4508,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4491,31 +4524,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4524,31 +4557,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>265</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4557,14 +4590,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4574,14 +4607,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4590,28 +4623,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4630,24 +4663,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4663,7 +4696,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4673,11 +4706,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>195</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4696,7 +4729,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4706,14 +4739,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4729,13 +4762,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4746,7 +4779,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4762,7 +4795,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4772,11 +4805,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4788,14 +4821,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4805,11 +4838,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>47</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>27</v>
@@ -4821,31 +4854,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4854,14 +4887,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,11 +4904,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4887,14 +4920,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4904,14 +4937,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4920,31 +4953,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>94</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4953,14 +4986,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4970,14 +5003,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4986,14 +5019,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5003,14 +5036,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5019,14 +5052,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5036,11 +5069,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>27</v>
@@ -5052,14 +5085,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5069,14 +5102,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5085,14 +5118,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5102,14 +5135,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>123</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5118,14 +5151,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5135,14 +5168,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5151,31 +5184,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>265</v>
+        <v>59</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5184,24 +5217,24 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5224,24 +5257,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5250,31 +5283,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>317</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>120</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>318</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5283,14 +5316,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5300,14 +5333,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5316,14 +5349,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5333,11 +5366,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5349,14 +5382,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5366,14 +5399,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>327</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5382,14 +5415,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,14 +5432,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5415,14 +5448,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5432,14 +5465,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5448,14 +5481,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5465,14 +5498,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5481,14 +5514,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5498,14 +5531,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>140</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5521,7 +5554,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>338</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5531,14 +5564,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5547,7 +5580,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5564,14 +5597,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>210</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>43</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5580,14 +5613,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>341</v>
+        <v>110</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5597,14 +5630,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5613,14 +5646,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5630,11 +5663,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5646,14 +5679,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5663,11 +5696,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5679,14 +5712,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5696,49 +5729,214 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>8079.2849999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>347</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>348</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>349</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>351</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>52</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>72</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>323</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>352</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>353</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>72</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>44</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>354</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>59</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>72</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>311</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>355</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>356</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>72</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>317</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>357</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>43</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>72</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>317</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8440.2849999999999</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>358</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>359</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>360</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6357,10 +6555,35 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -377,6 +377,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -560,9 +566,6 @@
     <t>GAST-REG 100 MG 30 TABS.</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -725,6 +728,12 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>MORYMER SPRAY</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
@@ -815,9 +824,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>SIMETHICONE-MUP 2% EMULSION ORAL DROPS 30 ML</t>
   </si>
   <si>
@@ -1070,9 +1076,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>29:0</t>
-  </si>
-  <si>
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
@@ -1085,7 +1088,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:08 PM</t>
+    <t>Thursday, 2 October, 2025 11:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2782,24 +2785,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2825,14 +2828,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2874,14 +2877,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2891,14 +2894,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>71</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3006,14 +3009,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3023,14 +3026,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3039,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3056,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3072,24 +3075,24 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -3112,24 +3115,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3138,14 +3141,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3155,14 +3158,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3171,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3188,11 +3191,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>27</v>
@@ -3204,7 +3207,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3221,14 +3224,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3287,14 +3290,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3320,11 +3323,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3376,7 +3379,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3386,14 +3389,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3435,14 +3438,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3452,14 +3455,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3468,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3485,7 +3488,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3508,7 +3511,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3534,14 +3537,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3551,14 +3554,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3567,7 +3570,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3584,14 +3587,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3633,7 +3636,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3683,11 +3686,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3716,14 +3719,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3739,21 +3742,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>27</v>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3798,7 +3801,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3811,15 +3814,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3831,7 +3834,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3848,11 +3851,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3881,11 +3884,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3947,14 +3950,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3963,7 +3966,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3980,11 +3983,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3996,7 +3999,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4079,14 +4082,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4095,7 +4098,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4112,11 +4115,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>27</v>
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4178,11 +4181,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4194,7 +4197,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4207,15 +4210,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4260,14 +4263,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4277,14 +4280,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4293,14 +4296,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4310,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>44</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4326,31 +4329,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4399,21 +4402,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4432,7 +4435,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4442,11 +4445,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>24</v>
@@ -4458,28 +4461,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4491,14 +4494,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4524,31 +4527,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4557,31 +4560,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4590,14 +4593,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4607,11 +4610,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>27</v>
@@ -4623,7 +4626,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4640,14 +4643,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4656,14 +4659,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4673,14 +4676,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4689,28 +4692,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4722,14 +4725,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>272</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4739,11 +4742,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4762,24 +4765,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4788,14 +4791,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4805,11 +4808,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4821,31 +4824,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4861,7 +4864,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4871,14 +4874,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4887,14 +4890,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4904,14 +4907,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>47</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4920,14 +4923,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4937,11 +4940,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4953,28 +4956,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4986,14 +4989,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>27</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5003,14 +5006,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5019,28 +5022,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>173</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5052,14 +5055,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5069,14 +5072,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5085,14 +5088,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5102,14 +5105,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>175</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5118,14 +5121,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>63</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5135,14 +5138,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>94</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5151,14 +5154,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5168,14 +5171,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5184,14 +5187,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5217,14 +5220,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5234,14 +5237,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5250,14 +5253,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>270</v>
+        <v>59</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5267,14 +5270,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>123</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5283,7 +5286,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5300,11 +5303,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5316,28 +5319,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5349,28 +5352,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>320</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5382,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5399,14 +5402,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5415,14 +5418,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>325</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5432,11 +5435,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5448,14 +5451,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5465,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5481,14 +5484,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5498,14 +5501,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5514,14 +5517,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5531,14 +5534,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5547,14 +5550,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>52</v>
+        <v>333</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5564,14 +5567,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>339</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5580,7 +5583,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5597,14 +5600,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>135</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5613,14 +5616,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5630,14 +5633,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>98</v>
+        <v>304</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>99</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5646,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5663,14 +5666,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5679,14 +5682,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5696,11 +5699,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5712,14 +5715,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>350</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5729,14 +5732,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5745,14 +5748,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5762,14 +5765,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5778,14 +5781,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5795,11 +5798,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>44</v>
+        <v>325</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5811,14 +5814,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5828,14 +5831,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>312</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5844,14 +5847,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5861,14 +5864,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>318</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5877,14 +5880,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5894,49 +5897,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8440.2849999999999</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>357</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>72</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>319</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
         <v>358</v>
       </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>43</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>72</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>319</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>320</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8621.2849999999999</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
         <v>359</v>
       </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
         <v>360</v>
       </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>361</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6580,10 +6649,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -479,13 +479,13 @@
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>46.0800</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>93.6000</t>
+  </si>
+  <si>
+    <t>0:8</t>
   </si>
   <si>
     <t>ESMOPROTON 40 MG 14 CAPS</t>
@@ -914,7 +914,7 @@
     <t>51.00</t>
   </si>
   <si>
-    <t>50.4900</t>
+    <t>67.3200</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1031,10 +1031,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>19.3200</t>
-  </si>
-  <si>
-    <t>9:1</t>
+    <t>21.3200</t>
+  </si>
+  <si>
+    <t>10:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1088,7 +1088,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:10 PM</t>
+    <t>Thursday, 2 October, 2025 11:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5161,7 +5161,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5178,7 +5178,7 @@
         <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5975,7 +5975,7 @@
     </row>
     <row r="136" ht="25.5" customHeight="1">
       <c r="P136" s="13">
-        <v>8621.2849999999999</v>
+        <v>8687.6350000000002</v>
       </c>
       <c r="Q136" s="13"/>
     </row>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -47,501 +47,510 @@
     <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
   </si>
   <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>32.00</t>
+    <t>ACRETIN 0.025% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>ALVERINSPASM 24 S.G.CAPS.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:5</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>ANTOPRAL 40MG 14 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>261.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>111.00</t>
+  </si>
+  <si>
+    <t>36.6300</t>
+  </si>
+  <si>
+    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>156.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>327.00</t>
+  </si>
+  <si>
+    <t>327.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>COLCHICINE 500MCG 100 TAB</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>COVAPRENDO 5/5MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
+    <t>DANDIVERA HAIR SHAMPOO 180ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>59.7600</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>101.00</t>
+  </si>
+  <si>
+    <t>50.5000</t>
+  </si>
+  <si>
+    <t>DOXIUM 500MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>275.0000</t>
+  </si>
+  <si>
+    <t>ENERZAD EXTRA</t>
+  </si>
+  <si>
+    <t>190.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>93.6000</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>38.6100</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
   </si>
   <si>
     <t>32.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ACRETIN 0.025% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>ADRENOCORTINE 1MG/ML I.M. AMP.</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>ALKAPRIDE 50 MG 30 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ALPHINTERN 30 F.C.TABS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>ALVERINSPASM 24 S.G.CAPS.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>67.5000</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>2:5</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ANTOPRAL 40MG 14 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>APEXIDONE 4MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>ARTHFREE 20MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>261.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>111.00</t>
-  </si>
-  <si>
-    <t>36.6300</t>
-  </si>
-  <si>
-    <t>ASMAKAST 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>156.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ASPIRIN PROTECT 100MG 30 GASTRO-RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ATOMORELAX 20MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>128.0000</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BIOLEGAM60/100 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>327.00</t>
-  </si>
-  <si>
-    <t>327.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>32.6700</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>COLCHICINE 500MCG 100 TAB</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>COVAPRENDO 5/5MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>138.0000</t>
-  </si>
-  <si>
-    <t>DANDIVERA HAIR SHAMPOO 180ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>59.7600</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOXIRAZOL 60 MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>101.00</t>
-  </si>
-  <si>
-    <t>50.5000</t>
-  </si>
-  <si>
-    <t>DOXIUM 500MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>275.0000</t>
-  </si>
-  <si>
-    <t>ENERZAD EXTRA</t>
-  </si>
-  <si>
-    <t>190.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>93.6000</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>ESMOPROTON 40 MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 10 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>38.6100</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
   </si>
   <si>
@@ -851,6 +860,12 @@
     <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -1031,10 +1046,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>21.3200</t>
-  </si>
-  <si>
-    <t>10:1</t>
+    <t>23.3200</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1762,7 +1777,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1779,7 +1794,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1795,7 +1810,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1812,7 +1827,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1894,7 +1909,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -2010,7 +2025,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2043,7 +2058,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2059,7 +2074,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2208,7 +2223,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2241,7 +2256,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2340,7 +2355,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2439,7 +2454,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2472,7 +2487,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2488,7 +2503,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2538,7 +2553,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2571,7 +2586,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2587,7 +2602,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2604,7 +2619,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2670,7 +2685,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2736,7 +2751,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2769,7 +2784,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2802,7 +2817,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2851,7 +2866,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2868,7 +2883,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2967,7 +2982,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2983,7 +2998,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3033,7 +3048,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3099,7 +3114,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3132,7 +3147,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3214,7 +3229,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3247,7 +3262,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3264,7 +3279,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3280,7 +3295,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3323,14 +3338,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3339,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3372,14 +3387,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3412,7 +3427,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3422,14 +3437,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3455,14 +3470,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3495,7 +3510,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3521,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>83</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3537,14 +3552,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3554,14 +3569,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3591,10 +3606,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3603,7 +3618,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3620,14 +3635,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3643,7 +3658,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3676,7 +3691,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3726,7 +3741,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3752,14 +3767,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3768,28 +3783,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>27</v>
@@ -3801,7 +3816,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3818,14 +3833,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3847,7 +3862,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3858,7 +3873,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3891,7 +3906,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3924,7 +3939,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3940,7 +3955,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3950,14 +3965,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3966,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4023,7 +4038,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4056,7 +4071,7 @@
         <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4072,7 +4087,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4171,7 +4186,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4188,7 +4203,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4204,24 +4219,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4230,7 +4245,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4243,18 +4258,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4263,7 +4278,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4336,7 +4351,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4346,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4362,14 +4377,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4379,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,31 +4410,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4428,31 +4443,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4461,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4478,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4527,31 +4542,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4573,7 +4588,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4581,10 +4596,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4614,10 +4629,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4626,20 +4641,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4666,13 +4681,13 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4699,24 +4714,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4725,31 +4740,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>272</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>130</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4765,7 +4780,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,14 +4790,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>98</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,31 +4839,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4870,18 +4885,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4923,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4940,11 +4955,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>27</v>
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4989,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,11 +5021,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>27</v>
@@ -5022,31 +5037,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5062,7 +5077,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,14 +5087,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5088,31 +5103,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>94</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>177</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>94</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,14 +5285,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5286,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5303,14 +5318,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5319,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>272</v>
+        <v>59</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5336,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5369,14 +5384,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>121</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5385,31 +5400,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>125</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,31 +5433,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>322</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5458,7 +5473,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>275</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5491,7 +5506,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>328</v>
+        <v>141</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5517,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,14 +5582,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5583,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>335</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,14 +5615,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
         <v>340</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>341</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5649,7 +5664,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5666,14 +5681,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>137</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5682,14 +5697,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,14 +5714,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>98</v>
+        <v>309</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>99</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>346</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5715,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5748,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,14 +5780,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5788,7 +5803,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5814,14 +5829,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,14 +5846,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>244</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5847,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>44</v>
+        <v>330</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5880,14 +5895,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5897,14 +5912,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5913,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5930,14 +5945,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>320</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5946,14 +5961,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5963,49 +5978,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8687.6350000000002</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>359</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>360</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
         <v>361</v>
       </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>362</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>72</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>324</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>363</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>43</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>72</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>324</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>325</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8738.3449999999993</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>364</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>365</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>366</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6659,10 +6740,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -1103,7 +1103,7 @@
     <t>معجون كلوز اب الصغير</t>
   </si>
   <si>
-    <t>Thursday, 2 October, 2025 11:41 PM</t>
+    <t>Thursday, 2 October, 2025 11:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 12:12 AM</t>
+    <t>Friday, 3 October, 2025 12:13 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 12:13 AM</t>
+    <t>Friday, 3 October, 2025 12:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-10-02_00-00.xlsx
+++ b/DaySale_2025-10-02_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 3 October, 2025 12:20 AM</t>
+    <t>Friday, 3 October, 2025 12:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
